--- a/BI.xlsx
+++ b/BI.xlsx
@@ -2079,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DR31"/>
+  <dimension ref="A1:DR47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BS1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15428,6 +15428,6324 @@
         <v/>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0001</t>
+        </is>
+      </c>
+      <c r="B32" s="60" t="n">
+        <v>57600097</v>
+      </c>
+      <c r="C32" s="61" t="n">
+        <v>44896.02018518518</v>
+      </c>
+      <c r="D32" s="47" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E32" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F32" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G32" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H32" s="47" t="inlineStr">
+        <is>
+          <t>南區</t>
+        </is>
+      </c>
+      <c r="I32" s="47" t="inlineStr">
+        <is>
+          <t>屏東縣</t>
+        </is>
+      </c>
+      <c r="J32" s="47" t="inlineStr">
+        <is>
+          <t>屏東縣內埔鄉</t>
+        </is>
+      </c>
+      <c r="K32" s="47" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L32" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M32" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N32" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O32" s="47" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P32" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q32" s="51" t="n">
+        <v>7</v>
+      </c>
+      <c r="R32" s="47" t="n"/>
+      <c r="S32" s="47" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T32" s="47" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U32" s="52" t="n"/>
+      <c r="V32" s="47" t="n"/>
+      <c r="W32" s="47" t="inlineStr">
+        <is>
+          <t>91288000</t>
+        </is>
+      </c>
+      <c r="X32" s="47" t="inlineStr">
+        <is>
+          <t>91208000</t>
+        </is>
+      </c>
+      <c r="Y32" s="47" t="inlineStr">
+        <is>
+          <t>912T1000</t>
+        </is>
+      </c>
+      <c r="Z32" s="47" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA32" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 91288000(25.38),91208000(18.90),912T1000(19.35),前一天最差PRB%:91288000(60.80%),91208000(48.64%),912T1000(61.51%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:訊號強度正常&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前3小時內是否有RRC Connection Setup Success Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前0小時內(0表示進件當時)是否有派工情況：否&gt;&gt;檢查HLR-MAX REQUESTED BANDWIDTH是否有DL&lt;226000000且UL&lt;60000000情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(100%)情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(10%～99%)情況：否&gt;&gt;檢查MDT L700 RSRQ是否有符合最差、平均、最佳各區間情況：否 (MIN:-13.5，平均:-10.98，MAX:-8.5)&gt;&gt;檢查MDT L700 RSRP是否有&lt;-105dBm 情況：否</t>
+        </is>
+      </c>
+      <c r="AB32" s="44" t="inlineStr">
+        <is>
+          <t>91288000</t>
+        </is>
+      </c>
+      <c r="AC32" s="51" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="AD32" s="51" t="n">
+        <v>-114.68</v>
+      </c>
+      <c r="AE32" s="51" t="n">
+        <v>-113.36</v>
+      </c>
+      <c r="AF32" s="51" t="n">
+        <v>-112.94</v>
+      </c>
+      <c r="AG32" s="51" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="AH32" s="51" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="AI32" s="51" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="AJ32" s="51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AK32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="51" t="n">
+        <v>25.38</v>
+      </c>
+      <c r="AN32" s="51" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="AO32" s="51" t="n">
+        <v>33.56</v>
+      </c>
+      <c r="AP32" s="51" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AQ32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="44" t="inlineStr">
+        <is>
+          <t>91208000</t>
+        </is>
+      </c>
+      <c r="AW32" s="51" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="AX32" s="51" t="n">
+        <v>-114.58</v>
+      </c>
+      <c r="AY32" s="51" t="n">
+        <v>-113.56</v>
+      </c>
+      <c r="AZ32" s="51" t="n">
+        <v>-113.27</v>
+      </c>
+      <c r="BA32" s="51" t="n">
+        <v>36.96</v>
+      </c>
+      <c r="BB32" s="51" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="BC32" s="51" t="n">
+        <v>43.66</v>
+      </c>
+      <c r="BD32" s="51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BE32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG32" s="51" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="BH32" s="51" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="BI32" s="51" t="n">
+        <v>22.72</v>
+      </c>
+      <c r="BJ32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP32" s="44" t="inlineStr">
+        <is>
+          <t>912T1000</t>
+        </is>
+      </c>
+      <c r="BQ32" s="51" t="n">
+        <v>61.51</v>
+      </c>
+      <c r="BR32" s="51" t="n">
+        <v>-113.28</v>
+      </c>
+      <c r="BS32" s="51" t="n">
+        <v>-112.15</v>
+      </c>
+      <c r="BT32" s="51" t="n">
+        <v>-111.3</v>
+      </c>
+      <c r="BU32" s="51" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="BV32" s="51" t="n">
+        <v>46.77</v>
+      </c>
+      <c r="BW32" s="51" t="n">
+        <v>56.96</v>
+      </c>
+      <c r="BX32" s="51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="BY32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA32" s="51" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="CB32" s="51" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="CC32" s="51" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="CD32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI32" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ32" s="47" t="n"/>
+      <c r="CK32" s="47" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL32" s="47" t="inlineStr">
+        <is>
+          <t>凱擘</t>
+        </is>
+      </c>
+      <c r="CM32" s="53" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN32" s="54" t="n">
+        <v>-100.33</v>
+      </c>
+      <c r="CO32" s="54" t="n">
+        <v>-98</v>
+      </c>
+      <c r="CP32" s="54" t="n">
+        <v>-93.12</v>
+      </c>
+      <c r="CQ32" s="54" t="n">
+        <v>-93</v>
+      </c>
+      <c r="CR32" s="54" t="n">
+        <v>-73</v>
+      </c>
+      <c r="CS32" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CT32" s="54" t="n">
+        <v>-12</v>
+      </c>
+      <c r="CU32" s="54" t="n">
+        <v>-10.98</v>
+      </c>
+      <c r="CV32" s="54" t="n">
+        <v>-9.25</v>
+      </c>
+      <c r="CW32" s="54" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CX32" s="51" t="n">
+        <v>120.573261</v>
+      </c>
+      <c r="CY32" s="51" t="n">
+        <v>22.6151777</v>
+      </c>
+      <c r="CZ32" s="53" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA32" s="53" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC32" s="31">
+        <f>IF(CP32&lt;-10,CP32,IF(ISERROR(AVERAGE(CN32:CR32)),"",AVERAGE(CN32:CR32)))</f>
+        <v/>
+      </c>
+      <c r="DD32" s="25">
+        <f>IF(AC32&lt;&gt;"",AC32/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE32" s="25">
+        <f>IF(AW32&lt;&gt;"",AW32/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF32" s="25">
+        <f>IF(BQ32&lt;&gt;"",BQ32/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG32" s="13">
+        <f>MAX(DD32,DE32,DF32)</f>
+        <v/>
+      </c>
+      <c r="DH32" s="14">
+        <f>IF(DG32=DD32,W32,IF(DG32=DE32,X32,IF(DG32=DF32,Y32,"")))</f>
+        <v/>
+      </c>
+      <c r="DI32" s="62">
+        <f>VLOOKUP(G32,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ32" s="4">
+        <f>IF(DC32&gt;-10,"",IF(ISERROR(DC32),"",CONCATENATE(INT(DC32/5)*5+5,"~",INT(DC32/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK32" s="4" t="n"/>
+      <c r="DL32" s="5">
+        <f>IF(AND(OR(N32="5G",N32="I5G"),O32="5GNSA"),"5G True User",IF(OR(N32="2G",N32="3G",N32="4G",N32="I4G"),"4G",IF(AND(OR(N32="5G",N32="I5G"),O32&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM32" s="63">
+        <f>COUNTIFS(AD32:AF32,"&gt;-105",AD32:AF32,"&lt;0")+COUNTIFS(AX32:AZ32,"&gt;-105",AX32:AZ32,"&lt;0")+COUNTIFS(BR32:BT32,"&gt;-105",BR32:BT32,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN32" s="11">
+        <f>ROUND(MAX(DD32,DE32,DF32)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO32" s="64">
+        <f>IF(DC32&gt;-10,"",ROUND(DC32/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP32" s="65">
+        <f>IF(R2="作業","障礙",IF(R32="障礙","障礙",IF(R32="抗爭","抗爭",IF(R32="40055重大障礙","40055重大障礙",IF(R32="非TWM問題的障礙","非TWM問題的障礙",IF(U32=35806,"非TWM問題的障礙",IF( OR(AND(AJ32&lt;&gt;"",AJ32&gt;0,AJ32&lt;0.7),       AND(AK32&lt;&gt;"",AK32&gt;0,AK32&lt;0.7),       AND(AL32&lt;&gt;"",AL32&gt;0,AL32&lt;0.7),       AND(AP32&lt;&gt;"",AP32&gt;0,AP32&lt;0.7),       AND(AQ32&lt;&gt;"",AQ32&gt;0,AQ32&lt;0.7),       AND(AR32&lt;&gt;"",AR32&gt;0,AR32&lt;0.7),       AND(AS32&lt;&gt;"",AS32&gt;0,AS32&lt;0.7),       AND(AT32&lt;&gt;"",AT32&gt;0,AT32&lt;0.7),       AND(AU32&lt;&gt;"",AU32&gt;0,AU32&lt;0.7)),"障礙",IF( OR(AND(BD32&lt;&gt;"",BD32&gt;0,BD32&lt;0.7),       AND(BE32&lt;&gt;"",BE32&gt;0,BE32&lt;0.7),       AND(BF32&lt;&gt;"",BF32&gt;0,BF32&lt;0.7),       AND(BJ32&lt;&gt;"",BJ32&gt;0,BJ32&lt;0.7),       AND(BK32&lt;&gt;"",BK32&gt;0,BK32&lt;0.7),       AND(BL32&lt;&gt;"",BL32&gt;0,BL32&lt;0.7),       AND(BM32&lt;&gt;"",BM32&gt;0,BM32&lt;0.7),       AND(BN32&lt;&gt;"",BN32&gt;0,BN32&lt;0.7),       AND(BO32&lt;&gt;"",BO32&gt;0,BO32&lt;0.7)),"障礙",IF( OR(AND(BX32&lt;&gt;"",BX32&gt;0,BX32&lt;0.7),       AND(BY32&lt;&gt;"",BY32&gt;0,BY32&lt;0.7),       AND(BZ32&lt;&gt;"",BZ32&gt;0,BZ32&lt;0.7),       AND(CD32&lt;&gt;"",CD32&gt;0,CD32&lt;0.7),       AND(CE32&lt;&gt;"",CE32&gt;0,CE32&lt;0.7),       AND(CF32&lt;&gt;"",CF32&gt;0,CF32&lt;0.7),       AND(CG32&lt;&gt;"",CG32&gt;0,CG32&lt;0.7),       AND(CH32&lt;&gt;"",CH32&gt;0,CH32&lt;0.7),       AND(CI32&lt;&gt;"",CI32&gt;0,CI32&lt;0.7)),"障礙",IF(OR(CJ32="住抗",CJ32="暫時移除設備"),"抗爭",IF(CJ32&lt;&gt;"","障礙",IF(DM32&gt;2,"干擾",IF(Q32=6,"CC6",IF( OR(AND(DD32&lt;&gt;"",DD32&gt;0.8),AND(DE32&lt;&gt;"",DE32&gt;0.8),AND(DF32&lt;&gt;"",DF32&gt;0.8)),"PRB&gt;80",IF(AND(DC32&gt;-106,DC32&lt;-30),"RSRP優於-106",IF(DC32&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ32" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA32)),"",MID(AA32,SEARCH("PM分析:",AA32)+5,SEARCH("&gt;&gt;檢查",AA32)-SEARCH("PM分析:",AA32)-5))</f>
+        <v/>
+      </c>
+      <c r="DR32" s="28">
+        <f>IF(T32="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T32="因應特別活動調整相關參數導致","TTC",IF(OR(T32="基站障礙問題查測中",T32="基站問題待料中",T32="基站障礙問題已修復",T32="施工作業已恢復",T32="基站抗爭暫時關閉",T32="基站抗爭持續關閉中",T32="基站抗爭已復站",T32="基地台抗爭拆站",T32="基地台群體抗爭",T32="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R32="作業",R32="障礙",R32="抗爭"),"基站障礙",IF(OR(T32="外在不明干擾影響，查測中",T32="干擾問題已排除",T32="外在不明干擾(大規模)影響",T32="干擾(大規模)問題已排除"),"干擾",IF(R32="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0002</t>
+        </is>
+      </c>
+      <c r="B33" s="66" t="n">
+        <v>16184698</v>
+      </c>
+      <c r="C33" s="67" t="n">
+        <v>44896.02300925926</v>
+      </c>
+      <c r="D33" s="38" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E33" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F33" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G33" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H33" s="38" t="inlineStr">
+        <is>
+          <t>北一</t>
+        </is>
+      </c>
+      <c r="I33" s="38" t="inlineStr">
+        <is>
+          <t>台北市</t>
+        </is>
+      </c>
+      <c r="J33" s="38" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="K33" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L33" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M33" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N33" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O33" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P33" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q33" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="R33" s="38" t="n"/>
+      <c r="S33" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T33" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U33" s="43" t="n"/>
+      <c r="V33" s="38" t="n"/>
+      <c r="W33" s="38" t="inlineStr">
+        <is>
+          <t>10030000</t>
+        </is>
+      </c>
+      <c r="X33" s="38" t="inlineStr">
+        <is>
+          <t>77710000</t>
+        </is>
+      </c>
+      <c r="Y33" s="38" t="inlineStr">
+        <is>
+          <t>100O0000</t>
+        </is>
+      </c>
+      <c r="Z33" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA33" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 10030000(13.42),77710000(18.30),100O0000(20.04),前一天最差PRB%:10030000(29.84%),77710000(52.13%),100O0000(46.02%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 12:00:00 10030000(88%))</t>
+        </is>
+      </c>
+      <c r="AB33" s="44" t="inlineStr">
+        <is>
+          <t>10030000</t>
+        </is>
+      </c>
+      <c r="AC33" s="42" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="AD33" s="42" t="n">
+        <v>-110.44</v>
+      </c>
+      <c r="AE33" s="42" t="n">
+        <v>-108.34</v>
+      </c>
+      <c r="AF33" s="42" t="n">
+        <v>-106.78</v>
+      </c>
+      <c r="AG33" s="42" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="AH33" s="42" t="n">
+        <v>26.92</v>
+      </c>
+      <c r="AI33" s="42" t="n">
+        <v>28.89</v>
+      </c>
+      <c r="AJ33" s="42" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AK33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="42" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="AN33" s="42" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="AO33" s="42" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="AP33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="44" t="inlineStr">
+        <is>
+          <t>77710000</t>
+        </is>
+      </c>
+      <c r="AW33" s="42" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="AX33" s="42" t="n">
+        <v>-108.97</v>
+      </c>
+      <c r="AY33" s="42" t="n">
+        <v>-107.41</v>
+      </c>
+      <c r="AZ33" s="42" t="n">
+        <v>-107.87</v>
+      </c>
+      <c r="BA33" s="42" t="n">
+        <v>28.81</v>
+      </c>
+      <c r="BB33" s="42" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="BC33" s="42" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="BD33" s="42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="BE33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG33" s="42" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="BH33" s="42" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="BI33" s="42" t="n">
+        <v>22.03</v>
+      </c>
+      <c r="BJ33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP33" s="44" t="inlineStr">
+        <is>
+          <t>100O0000</t>
+        </is>
+      </c>
+      <c r="BQ33" s="42" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="BR33" s="42" t="n">
+        <v>-111.93</v>
+      </c>
+      <c r="BS33" s="42" t="n">
+        <v>-110.11</v>
+      </c>
+      <c r="BT33" s="42" t="n">
+        <v>-110</v>
+      </c>
+      <c r="BU33" s="42" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="BV33" s="42" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="BW33" s="42" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="BX33" s="42" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="BY33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA33" s="42" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="CB33" s="42" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="CC33" s="42" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="CD33" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CE33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG33" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CH33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI33" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ33" s="38" t="n"/>
+      <c r="CK33" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL33" s="38" t="n"/>
+      <c r="CM33" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN33" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CO33" s="46" t="n">
+        <v>-101</v>
+      </c>
+      <c r="CP33" s="46" t="n">
+        <v>-94.88</v>
+      </c>
+      <c r="CQ33" s="46" t="n">
+        <v>-93</v>
+      </c>
+      <c r="CR33" s="46" t="n">
+        <v>-81</v>
+      </c>
+      <c r="CS33" s="46" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CT33" s="46" t="n">
+        <v>-13</v>
+      </c>
+      <c r="CU33" s="46" t="n">
+        <v>-11.62</v>
+      </c>
+      <c r="CV33" s="46" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="CW33" s="46" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CX33" s="42" t="n">
+        <v>121.5249521</v>
+      </c>
+      <c r="CY33" s="42" t="n">
+        <v>25.0180106</v>
+      </c>
+      <c r="CZ33" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA33" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC33" s="31">
+        <f>IF(CP33&lt;-10,CP33,IF(ISERROR(AVERAGE(CN33:CR33)),"",AVERAGE(CN33:CR33)))</f>
+        <v/>
+      </c>
+      <c r="DD33" s="25">
+        <f>IF(AC33&lt;&gt;"",AC33/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE33" s="25">
+        <f>IF(AW33&lt;&gt;"",AW33/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF33" s="25">
+        <f>IF(BQ33&lt;&gt;"",BQ33/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG33" s="13">
+        <f>MAX(DD33,DE33,DF33)</f>
+        <v/>
+      </c>
+      <c r="DH33" s="14">
+        <f>IF(DG33=DD33,W33,IF(DG33=DE33,X33,IF(DG33=DF33,Y33,"")))</f>
+        <v/>
+      </c>
+      <c r="DI33" s="62">
+        <f>VLOOKUP(G33,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ33" s="4">
+        <f>IF(DC33&gt;-10,"",IF(ISERROR(DC33),"",CONCATENATE(INT(DC33/5)*5+5,"~",INT(DC33/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK33" s="4" t="n"/>
+      <c r="DL33" s="5">
+        <f>IF(AND(OR(N33="5G",N33="I5G"),O33="5GNSA"),"5G True User",IF(OR(N33="2G",N33="3G",N33="4G",N33="I4G"),"4G",IF(AND(OR(N33="5G",N33="I5G"),O33&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM33" s="63">
+        <f>COUNTIFS(AD33:AF33,"&gt;-105",AD33:AF33,"&lt;0")+COUNTIFS(AX33:AZ33,"&gt;-105",AX33:AZ33,"&lt;0")+COUNTIFS(BR33:BT33,"&gt;-105",BR33:BT33,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN33" s="11">
+        <f>ROUND(MAX(DD33,DE33,DF33)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO33" s="64">
+        <f>IF(DC33&gt;-10,"",ROUND(DC33/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP33" s="65">
+        <f>IF(R2="作業","障礙",IF(R33="障礙","障礙",IF(R33="抗爭","抗爭",IF(R33="40055重大障礙","40055重大障礙",IF(R33="非TWM問題的障礙","非TWM問題的障礙",IF(U33=35806,"非TWM問題的障礙",IF( OR(AND(AJ33&lt;&gt;"",AJ33&gt;0,AJ33&lt;0.7),       AND(AK33&lt;&gt;"",AK33&gt;0,AK33&lt;0.7),       AND(AL33&lt;&gt;"",AL33&gt;0,AL33&lt;0.7),       AND(AP33&lt;&gt;"",AP33&gt;0,AP33&lt;0.7),       AND(AQ33&lt;&gt;"",AQ33&gt;0,AQ33&lt;0.7),       AND(AR33&lt;&gt;"",AR33&gt;0,AR33&lt;0.7),       AND(AS33&lt;&gt;"",AS33&gt;0,AS33&lt;0.7),       AND(AT33&lt;&gt;"",AT33&gt;0,AT33&lt;0.7),       AND(AU33&lt;&gt;"",AU33&gt;0,AU33&lt;0.7)),"障礙",IF( OR(AND(BD33&lt;&gt;"",BD33&gt;0,BD33&lt;0.7),       AND(BE33&lt;&gt;"",BE33&gt;0,BE33&lt;0.7),       AND(BF33&lt;&gt;"",BF33&gt;0,BF33&lt;0.7),       AND(BJ33&lt;&gt;"",BJ33&gt;0,BJ33&lt;0.7),       AND(BK33&lt;&gt;"",BK33&gt;0,BK33&lt;0.7),       AND(BL33&lt;&gt;"",BL33&gt;0,BL33&lt;0.7),       AND(BM33&lt;&gt;"",BM33&gt;0,BM33&lt;0.7),       AND(BN33&lt;&gt;"",BN33&gt;0,BN33&lt;0.7),       AND(BO33&lt;&gt;"",BO33&gt;0,BO33&lt;0.7)),"障礙",IF( OR(AND(BX33&lt;&gt;"",BX33&gt;0,BX33&lt;0.7),       AND(BY33&lt;&gt;"",BY33&gt;0,BY33&lt;0.7),       AND(BZ33&lt;&gt;"",BZ33&gt;0,BZ33&lt;0.7),       AND(CD33&lt;&gt;"",CD33&gt;0,CD33&lt;0.7),       AND(CE33&lt;&gt;"",CE33&gt;0,CE33&lt;0.7),       AND(CF33&lt;&gt;"",CF33&gt;0,CF33&lt;0.7),       AND(CG33&lt;&gt;"",CG33&gt;0,CG33&lt;0.7),       AND(CH33&lt;&gt;"",CH33&gt;0,CH33&lt;0.7),       AND(CI33&lt;&gt;"",CI33&gt;0,CI33&lt;0.7)),"障礙",IF(OR(CJ33="住抗",CJ33="暫時移除設備"),"抗爭",IF(CJ33&lt;&gt;"","障礙",IF(DM33&gt;2,"干擾",IF(Q33=6,"CC6",IF( OR(AND(DD33&lt;&gt;"",DD33&gt;0.8),AND(DE33&lt;&gt;"",DE33&gt;0.8),AND(DF33&lt;&gt;"",DF33&gt;0.8)),"PRB&gt;80",IF(AND(DC33&gt;-106,DC33&lt;-30),"RSRP優於-106",IF(DC33&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ33" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA33)),"",MID(AA33,SEARCH("PM分析:",AA33)+5,SEARCH("&gt;&gt;檢查",AA33)-SEARCH("PM分析:",AA33)-5))</f>
+        <v/>
+      </c>
+      <c r="DR33" s="28">
+        <f>IF(T33="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T33="因應特別活動調整相關參數導致","TTC",IF(OR(T33="基站障礙問題查測中",T33="基站問題待料中",T33="基站障礙問題已修復",T33="施工作業已恢復",T33="基站抗爭暫時關閉",T33="基站抗爭持續關閉中",T33="基站抗爭已復站",T33="基地台抗爭拆站",T33="基地台群體抗爭",T33="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R33="作業",R33="障礙",R33="抗爭"),"基站障礙",IF(OR(T33="外在不明干擾影響，查測中",T33="干擾問題已排除",T33="外在不明干擾(大規模)影響",T33="干擾(大規模)問題已排除"),"干擾",IF(R33="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0003</t>
+        </is>
+      </c>
+      <c r="B34" s="60" t="n">
+        <v>65848137</v>
+      </c>
+      <c r="C34" s="61" t="n">
+        <v>44896.02694444444</v>
+      </c>
+      <c r="D34" s="47" t="inlineStr">
+        <is>
+          <t>00</t>
+        </is>
+      </c>
+      <c r="E34" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F34" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G34" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H34" s="47" t="inlineStr">
+        <is>
+          <t>北一</t>
+        </is>
+      </c>
+      <c r="I34" s="47" t="inlineStr">
+        <is>
+          <t>台北市</t>
+        </is>
+      </c>
+      <c r="J34" s="47" t="inlineStr">
+        <is>
+          <t>台北市內湖區</t>
+        </is>
+      </c>
+      <c r="K34" s="47" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="L34" s="47" t="inlineStr">
+        <is>
+          <t>語音相關問題</t>
+        </is>
+      </c>
+      <c r="M34" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N34" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O34" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="P34" s="47" t="inlineStr">
+        <is>
+          <t>4G語音收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q34" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" s="47" t="inlineStr">
+        <is>
+          <t>抗爭</t>
+        </is>
+      </c>
+      <c r="S34" s="47" t="inlineStr">
+        <is>
+          <t>(J)基站問題</t>
+        </is>
+      </c>
+      <c r="T34" s="47" t="inlineStr">
+        <is>
+          <t>基站抗爭已復站</t>
+        </is>
+      </c>
+      <c r="U34" s="52" t="n"/>
+      <c r="V34" s="47" t="n"/>
+      <c r="W34" s="47" t="inlineStr">
+        <is>
+          <t>1141J000</t>
+        </is>
+      </c>
+      <c r="X34" s="47" t="inlineStr">
+        <is>
+          <t>114N7000</t>
+        </is>
+      </c>
+      <c r="Y34" s="47" t="inlineStr">
+        <is>
+          <t>114HD000</t>
+        </is>
+      </c>
+      <c r="Z34" s="47" t="inlineStr">
+        <is>
+          <t>已改善</t>
+        </is>
+      </c>
+      <c r="AA34" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 1141J000(6),114N7000(6.25),114HD000(14.64),前一天最差PRB%:1141J000(24.98%),114N7000(15.66%),114HD000(22.97%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案2&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：是(114N7000 2022/11/30 22:00:00 L700=1269,L1800=2171, 2022/12/01 00:00:00 L700=1077,L1800=2509)</t>
+        </is>
+      </c>
+      <c r="AB34" s="44" t="n"/>
+      <c r="AC34" s="51" t="n">
+        <v>24.98</v>
+      </c>
+      <c r="AD34" s="51" t="n"/>
+      <c r="AE34" s="51" t="n"/>
+      <c r="AF34" s="51" t="n"/>
+      <c r="AG34" s="51" t="n"/>
+      <c r="AH34" s="51" t="n"/>
+      <c r="AI34" s="51" t="n"/>
+      <c r="AJ34" s="51" t="n"/>
+      <c r="AK34" s="51" t="n"/>
+      <c r="AL34" s="51" t="n"/>
+      <c r="AM34" s="51" t="n"/>
+      <c r="AN34" s="51" t="n"/>
+      <c r="AO34" s="51" t="n"/>
+      <c r="AP34" s="51" t="n"/>
+      <c r="AQ34" s="51" t="n"/>
+      <c r="AR34" s="51" t="n"/>
+      <c r="AS34" s="51" t="n"/>
+      <c r="AT34" s="51" t="n"/>
+      <c r="AU34" s="51" t="n"/>
+      <c r="AV34" s="44" t="n"/>
+      <c r="AW34" s="51" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="AX34" s="51" t="n"/>
+      <c r="AY34" s="51" t="n"/>
+      <c r="AZ34" s="51" t="n"/>
+      <c r="BA34" s="51" t="n"/>
+      <c r="BB34" s="51" t="n"/>
+      <c r="BC34" s="51" t="n"/>
+      <c r="BD34" s="51" t="n"/>
+      <c r="BE34" s="51" t="n"/>
+      <c r="BF34" s="51" t="n"/>
+      <c r="BG34" s="51" t="n"/>
+      <c r="BH34" s="51" t="n"/>
+      <c r="BI34" s="51" t="n"/>
+      <c r="BJ34" s="51" t="n"/>
+      <c r="BK34" s="51" t="n"/>
+      <c r="BL34" s="51" t="n"/>
+      <c r="BM34" s="51" t="n"/>
+      <c r="BN34" s="51" t="n"/>
+      <c r="BO34" s="51" t="n"/>
+      <c r="BP34" s="44" t="n"/>
+      <c r="BQ34" s="51" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="BR34" s="51" t="n"/>
+      <c r="BS34" s="51" t="n"/>
+      <c r="BT34" s="51" t="n"/>
+      <c r="BU34" s="51" t="n"/>
+      <c r="BV34" s="51" t="n"/>
+      <c r="BW34" s="51" t="n"/>
+      <c r="BX34" s="51" t="n"/>
+      <c r="BY34" s="51" t="n"/>
+      <c r="BZ34" s="51" t="n"/>
+      <c r="CA34" s="51" t="n"/>
+      <c r="CB34" s="51" t="n"/>
+      <c r="CC34" s="51" t="n"/>
+      <c r="CD34" s="51" t="n"/>
+      <c r="CE34" s="51" t="n"/>
+      <c r="CF34" s="51" t="n"/>
+      <c r="CG34" s="51" t="n"/>
+      <c r="CH34" s="51" t="n"/>
+      <c r="CI34" s="51" t="n"/>
+      <c r="CJ34" s="47" t="n"/>
+      <c r="CK34" s="47" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL34" s="47" t="inlineStr">
+        <is>
+          <t>凱擘</t>
+        </is>
+      </c>
+      <c r="CM34" s="53" t="inlineStr">
+        <is>
+          <t>官網WEB拋轉</t>
+        </is>
+      </c>
+      <c r="CN34" s="54" t="n">
+        <v>-123</v>
+      </c>
+      <c r="CO34" s="54" t="n">
+        <v>-117</v>
+      </c>
+      <c r="CP34" s="54" t="n">
+        <v>-114.28</v>
+      </c>
+      <c r="CQ34" s="54" t="n">
+        <v>-112</v>
+      </c>
+      <c r="CR34" s="54" t="n">
+        <v>-91</v>
+      </c>
+      <c r="CS34" s="54" t="n">
+        <v>-19</v>
+      </c>
+      <c r="CT34" s="54" t="n">
+        <v>-13</v>
+      </c>
+      <c r="CU34" s="54" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="CV34" s="54" t="n">
+        <v>-9</v>
+      </c>
+      <c r="CW34" s="54" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="CX34" s="51" t="n">
+        <v>121.59937</v>
+      </c>
+      <c r="CY34" s="51" t="n">
+        <v>25.083513</v>
+      </c>
+      <c r="CZ34" s="53" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA34" s="53" t="inlineStr">
+        <is>
+          <t>抗爭</t>
+        </is>
+      </c>
+      <c r="DC34" s="31">
+        <f>IF(CP34&lt;-10,CP34,IF(ISERROR(AVERAGE(CN34:CR34)),"",AVERAGE(CN34:CR34)))</f>
+        <v/>
+      </c>
+      <c r="DD34" s="25">
+        <f>IF(AC34&lt;&gt;"",AC34/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE34" s="25">
+        <f>IF(AW34&lt;&gt;"",AW34/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF34" s="25">
+        <f>IF(BQ34&lt;&gt;"",BQ34/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG34" s="13">
+        <f>MAX(DD34,DE34,DF34)</f>
+        <v/>
+      </c>
+      <c r="DH34" s="14">
+        <f>IF(DG34=DD34,W34,IF(DG34=DE34,X34,IF(DG34=DF34,Y34,"")))</f>
+        <v/>
+      </c>
+      <c r="DI34" s="62">
+        <f>VLOOKUP(G34,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ34" s="4">
+        <f>IF(DC34&gt;-10,"",IF(ISERROR(DC34),"",CONCATENATE(INT(DC34/5)*5+5,"~",INT(DC34/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK34" s="4" t="n"/>
+      <c r="DL34" s="5">
+        <f>IF(AND(OR(N34="5G",N34="I5G"),O34="5GNSA"),"5G True User",IF(OR(N34="2G",N34="3G",N34="4G",N34="I4G"),"4G",IF(AND(OR(N34="5G",N34="I5G"),O34&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM34" s="63">
+        <f>COUNTIFS(AD34:AF34,"&gt;-105",AD34:AF34,"&lt;0")+COUNTIFS(AX34:AZ34,"&gt;-105",AX34:AZ34,"&lt;0")+COUNTIFS(BR34:BT34,"&gt;-105",BR34:BT34,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN34" s="11">
+        <f>ROUND(MAX(DD34,DE34,DF34)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO34" s="64">
+        <f>IF(DC34&gt;-10,"",ROUND(DC34/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP34" s="65">
+        <f>IF(R2="作業","障礙",IF(R34="障礙","障礙",IF(R34="抗爭","抗爭",IF(R34="40055重大障礙","40055重大障礙",IF(R34="非TWM問題的障礙","非TWM問題的障礙",IF(U34=35806,"非TWM問題的障礙",IF( OR(AND(AJ34&lt;&gt;"",AJ34&gt;0,AJ34&lt;0.7),       AND(AK34&lt;&gt;"",AK34&gt;0,AK34&lt;0.7),       AND(AL34&lt;&gt;"",AL34&gt;0,AL34&lt;0.7),       AND(AP34&lt;&gt;"",AP34&gt;0,AP34&lt;0.7),       AND(AQ34&lt;&gt;"",AQ34&gt;0,AQ34&lt;0.7),       AND(AR34&lt;&gt;"",AR34&gt;0,AR34&lt;0.7),       AND(AS34&lt;&gt;"",AS34&gt;0,AS34&lt;0.7),       AND(AT34&lt;&gt;"",AT34&gt;0,AT34&lt;0.7),       AND(AU34&lt;&gt;"",AU34&gt;0,AU34&lt;0.7)),"障礙",IF( OR(AND(BD34&lt;&gt;"",BD34&gt;0,BD34&lt;0.7),       AND(BE34&lt;&gt;"",BE34&gt;0,BE34&lt;0.7),       AND(BF34&lt;&gt;"",BF34&gt;0,BF34&lt;0.7),       AND(BJ34&lt;&gt;"",BJ34&gt;0,BJ34&lt;0.7),       AND(BK34&lt;&gt;"",BK34&gt;0,BK34&lt;0.7),       AND(BL34&lt;&gt;"",BL34&gt;0,BL34&lt;0.7),       AND(BM34&lt;&gt;"",BM34&gt;0,BM34&lt;0.7),       AND(BN34&lt;&gt;"",BN34&gt;0,BN34&lt;0.7),       AND(BO34&lt;&gt;"",BO34&gt;0,BO34&lt;0.7)),"障礙",IF( OR(AND(BX34&lt;&gt;"",BX34&gt;0,BX34&lt;0.7),       AND(BY34&lt;&gt;"",BY34&gt;0,BY34&lt;0.7),       AND(BZ34&lt;&gt;"",BZ34&gt;0,BZ34&lt;0.7),       AND(CD34&lt;&gt;"",CD34&gt;0,CD34&lt;0.7),       AND(CE34&lt;&gt;"",CE34&gt;0,CE34&lt;0.7),       AND(CF34&lt;&gt;"",CF34&gt;0,CF34&lt;0.7),       AND(CG34&lt;&gt;"",CG34&gt;0,CG34&lt;0.7),       AND(CH34&lt;&gt;"",CH34&gt;0,CH34&lt;0.7),       AND(CI34&lt;&gt;"",CI34&gt;0,CI34&lt;0.7)),"障礙",IF(OR(CJ34="住抗",CJ34="暫時移除設備"),"抗爭",IF(CJ34&lt;&gt;"","障礙",IF(DM34&gt;2,"干擾",IF(Q34=6,"CC6",IF( OR(AND(DD34&lt;&gt;"",DD34&gt;0.8),AND(DE34&lt;&gt;"",DE34&gt;0.8),AND(DF34&lt;&gt;"",DF34&gt;0.8)),"PRB&gt;80",IF(AND(DC34&gt;-106,DC34&lt;-30),"RSRP優於-106",IF(DC34&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ34" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA34)),"",MID(AA34,SEARCH("PM分析:",AA34)+5,SEARCH("&gt;&gt;檢查",AA34)-SEARCH("PM分析:",AA34)-5))</f>
+        <v/>
+      </c>
+      <c r="DR34" s="28">
+        <f>IF(T34="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T34="因應特別活動調整相關參數導致","TTC",IF(OR(T34="基站障礙問題查測中",T34="基站問題待料中",T34="基站障礙問題已修復",T34="施工作業已恢復",T34="基站抗爭暫時關閉",T34="基站抗爭持續關閉中",T34="基站抗爭已復站",T34="基地台抗爭拆站",T34="基地台群體抗爭",T34="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R34="作業",R34="障礙",R34="抗爭"),"基站障礙",IF(OR(T34="外在不明干擾影響，查測中",T34="干擾問題已排除",T34="外在不明干擾(大規模)影響",T34="干擾(大規模)問題已排除"),"干擾",IF(R34="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0005</t>
+        </is>
+      </c>
+      <c r="B35" s="66" t="n">
+        <v>58001038</v>
+      </c>
+      <c r="C35" s="67" t="n">
+        <v>44896.13762731481</v>
+      </c>
+      <c r="D35" s="38" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="E35" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F35" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G35" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H35" s="38" t="inlineStr">
+        <is>
+          <t>中區</t>
+        </is>
+      </c>
+      <c r="I35" s="38" t="inlineStr">
+        <is>
+          <t>南投縣</t>
+        </is>
+      </c>
+      <c r="J35" s="38" t="inlineStr">
+        <is>
+          <t>南投縣草屯鎮</t>
+        </is>
+      </c>
+      <c r="K35" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L35" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M35" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N35" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O35" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P35" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q35" s="42" t="n">
+        <v>11</v>
+      </c>
+      <c r="R35" s="38" t="n"/>
+      <c r="S35" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T35" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U35" s="43" t="n"/>
+      <c r="V35" s="38" t="n"/>
+      <c r="W35" s="38" t="inlineStr">
+        <is>
+          <t>542B8000</t>
+        </is>
+      </c>
+      <c r="X35" s="38" t="inlineStr">
+        <is>
+          <t>542B5000</t>
+        </is>
+      </c>
+      <c r="Y35" s="38" t="inlineStr">
+        <is>
+          <t>54264000</t>
+        </is>
+      </c>
+      <c r="Z35" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA35" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 542B8000(14.02),542B5000(11.31),54264000(16.12),前一天最差PRB%:542B8000(48.40%),542B5000(46.88%),54264000(59.96%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 03:00:00 542B8000(67%))</t>
+        </is>
+      </c>
+      <c r="AB35" s="44" t="inlineStr">
+        <is>
+          <t>542B8000</t>
+        </is>
+      </c>
+      <c r="AC35" s="42" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AD35" s="42" t="n">
+        <v>-113.57</v>
+      </c>
+      <c r="AE35" s="42" t="n">
+        <v>-113.24</v>
+      </c>
+      <c r="AF35" s="42" t="n">
+        <v>-112.45</v>
+      </c>
+      <c r="AG35" s="42" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="AH35" s="42" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="AI35" s="42" t="n">
+        <v>29.48</v>
+      </c>
+      <c r="AJ35" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AK35" s="42" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AL35" s="42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AM35" s="42" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="AN35" s="42" t="n">
+        <v>15.11</v>
+      </c>
+      <c r="AO35" s="42" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="AP35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="44" t="inlineStr">
+        <is>
+          <t>542B5000</t>
+        </is>
+      </c>
+      <c r="AW35" s="42" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="AX35" s="42" t="n">
+        <v>-116.18</v>
+      </c>
+      <c r="AY35" s="42" t="n">
+        <v>-116.22</v>
+      </c>
+      <c r="AZ35" s="42" t="n">
+        <v>-114.96</v>
+      </c>
+      <c r="BA35" s="42" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="BB35" s="42" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="BC35" s="42" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="BD35" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BE35" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BF35" s="42" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BG35" s="42" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="BH35" s="42" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="BI35" s="42" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="BJ35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="44" t="inlineStr">
+        <is>
+          <t>54264000</t>
+        </is>
+      </c>
+      <c r="BQ35" s="42" t="n">
+        <v>59.96</v>
+      </c>
+      <c r="BR35" s="42" t="n">
+        <v>-115.61</v>
+      </c>
+      <c r="BS35" s="42" t="n">
+        <v>-115.43</v>
+      </c>
+      <c r="BT35" s="42" t="n">
+        <v>-114.98</v>
+      </c>
+      <c r="BU35" s="42" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="BV35" s="42" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="BW35" s="42" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="BX35" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BY35" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BZ35" s="42" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CA35" s="42" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="CB35" s="42" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="CC35" s="42" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="CD35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI35" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ35" s="38" t="n"/>
+      <c r="CK35" s="38" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL35" s="38" t="n"/>
+      <c r="CM35" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN35" s="46" t="n">
+        <v>-122</v>
+      </c>
+      <c r="CO35" s="46" t="n">
+        <v>-108.5</v>
+      </c>
+      <c r="CP35" s="46" t="n">
+        <v>-102.08</v>
+      </c>
+      <c r="CQ35" s="46" t="n">
+        <v>-96</v>
+      </c>
+      <c r="CR35" s="46" t="n">
+        <v>-90</v>
+      </c>
+      <c r="CS35" s="46" t="n">
+        <v>-16</v>
+      </c>
+      <c r="CT35" s="46" t="n">
+        <v>-14</v>
+      </c>
+      <c r="CU35" s="46" t="n">
+        <v>-12.59</v>
+      </c>
+      <c r="CV35" s="46" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="CW35" s="46" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="CX35" s="42" t="n">
+        <v>120.684168</v>
+      </c>
+      <c r="CY35" s="42" t="n">
+        <v>23.9676914</v>
+      </c>
+      <c r="CZ35" s="45" t="inlineStr">
+        <is>
+          <t>基站障礙</t>
+        </is>
+      </c>
+      <c r="DA35" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC35" s="31">
+        <f>IF(CP35&lt;-10,CP35,IF(ISERROR(AVERAGE(CN35:CR35)),"",AVERAGE(CN35:CR35)))</f>
+        <v/>
+      </c>
+      <c r="DD35" s="25">
+        <f>IF(AC35&lt;&gt;"",AC35/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE35" s="25">
+        <f>IF(AW35&lt;&gt;"",AW35/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF35" s="25">
+        <f>IF(BQ35&lt;&gt;"",BQ35/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG35" s="13">
+        <f>MAX(DD35,DE35,DF35)</f>
+        <v/>
+      </c>
+      <c r="DH35" s="14">
+        <f>IF(DG35=DD35,W35,IF(DG35=DE35,X35,IF(DG35=DF35,Y35,"")))</f>
+        <v/>
+      </c>
+      <c r="DI35" s="62">
+        <f>VLOOKUP(G35,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ35" s="4">
+        <f>IF(DC35&gt;-10,"",IF(ISERROR(DC35),"",CONCATENATE(INT(DC35/5)*5+5,"~",INT(DC35/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK35" s="4" t="n"/>
+      <c r="DL35" s="5">
+        <f>IF(AND(OR(N35="5G",N35="I5G"),O35="5GNSA"),"5G True User",IF(OR(N35="2G",N35="3G",N35="4G",N35="I4G"),"4G",IF(AND(OR(N35="5G",N35="I5G"),O35&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM35" s="63">
+        <f>COUNTIFS(AD35:AF35,"&gt;-105",AD35:AF35,"&lt;0")+COUNTIFS(AX35:AZ35,"&gt;-105",AX35:AZ35,"&lt;0")+COUNTIFS(BR35:BT35,"&gt;-105",BR35:BT35,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN35" s="11">
+        <f>ROUND(MAX(DD35,DE35,DF35)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO35" s="64">
+        <f>IF(DC35&gt;-10,"",ROUND(DC35/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP35" s="65">
+        <f>IF(R2="作業","障礙",IF(R35="障礙","障礙",IF(R35="抗爭","抗爭",IF(R35="40055重大障礙","40055重大障礙",IF(R35="非TWM問題的障礙","非TWM問題的障礙",IF(U35=35806,"非TWM問題的障礙",IF( OR(AND(AJ35&lt;&gt;"",AJ35&gt;0,AJ35&lt;0.7),       AND(AK35&lt;&gt;"",AK35&gt;0,AK35&lt;0.7),       AND(AL35&lt;&gt;"",AL35&gt;0,AL35&lt;0.7),       AND(AP35&lt;&gt;"",AP35&gt;0,AP35&lt;0.7),       AND(AQ35&lt;&gt;"",AQ35&gt;0,AQ35&lt;0.7),       AND(AR35&lt;&gt;"",AR35&gt;0,AR35&lt;0.7),       AND(AS35&lt;&gt;"",AS35&gt;0,AS35&lt;0.7),       AND(AT35&lt;&gt;"",AT35&gt;0,AT35&lt;0.7),       AND(AU35&lt;&gt;"",AU35&gt;0,AU35&lt;0.7)),"障礙",IF( OR(AND(BD35&lt;&gt;"",BD35&gt;0,BD35&lt;0.7),       AND(BE35&lt;&gt;"",BE35&gt;0,BE35&lt;0.7),       AND(BF35&lt;&gt;"",BF35&gt;0,BF35&lt;0.7),       AND(BJ35&lt;&gt;"",BJ35&gt;0,BJ35&lt;0.7),       AND(BK35&lt;&gt;"",BK35&gt;0,BK35&lt;0.7),       AND(BL35&lt;&gt;"",BL35&gt;0,BL35&lt;0.7),       AND(BM35&lt;&gt;"",BM35&gt;0,BM35&lt;0.7),       AND(BN35&lt;&gt;"",BN35&gt;0,BN35&lt;0.7),       AND(BO35&lt;&gt;"",BO35&gt;0,BO35&lt;0.7)),"障礙",IF( OR(AND(BX35&lt;&gt;"",BX35&gt;0,BX35&lt;0.7),       AND(BY35&lt;&gt;"",BY35&gt;0,BY35&lt;0.7),       AND(BZ35&lt;&gt;"",BZ35&gt;0,BZ35&lt;0.7),       AND(CD35&lt;&gt;"",CD35&gt;0,CD35&lt;0.7),       AND(CE35&lt;&gt;"",CE35&gt;0,CE35&lt;0.7),       AND(CF35&lt;&gt;"",CF35&gt;0,CF35&lt;0.7),       AND(CG35&lt;&gt;"",CG35&gt;0,CG35&lt;0.7),       AND(CH35&lt;&gt;"",CH35&gt;0,CH35&lt;0.7),       AND(CI35&lt;&gt;"",CI35&gt;0,CI35&lt;0.7)),"障礙",IF(OR(CJ35="住抗",CJ35="暫時移除設備"),"抗爭",IF(CJ35&lt;&gt;"","障礙",IF(DM35&gt;2,"干擾",IF(Q35=6,"CC6",IF( OR(AND(DD35&lt;&gt;"",DD35&gt;0.8),AND(DE35&lt;&gt;"",DE35&gt;0.8),AND(DF35&lt;&gt;"",DF35&gt;0.8)),"PRB&gt;80",IF(AND(DC35&gt;-106,DC35&lt;-30),"RSRP優於-106",IF(DC35&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ35" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA35)),"",MID(AA35,SEARCH("PM分析:",AA35)+5,SEARCH("&gt;&gt;檢查",AA35)-SEARCH("PM分析:",AA35)-5))</f>
+        <v/>
+      </c>
+      <c r="DR35" s="28">
+        <f>IF(T35="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T35="因應特別活動調整相關參數導致","TTC",IF(OR(T35="基站障礙問題查測中",T35="基站問題待料中",T35="基站障礙問題已修復",T35="施工作業已恢復",T35="基站抗爭暫時關閉",T35="基站抗爭持續關閉中",T35="基站抗爭已復站",T35="基地台抗爭拆站",T35="基地台群體抗爭",T35="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R35="作業",R35="障礙",R35="抗爭"),"基站障礙",IF(OR(T35="外在不明干擾影響，查測中",T35="干擾問題已排除",T35="外在不明干擾(大規模)影響",T35="干擾(大規模)問題已排除"),"干擾",IF(R35="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0016</t>
+        </is>
+      </c>
+      <c r="B36" s="60" t="n">
+        <v>66360350</v>
+      </c>
+      <c r="C36" s="61" t="n">
+        <v>44896.18971064815</v>
+      </c>
+      <c r="D36" s="47" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E36" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F36" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G36" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H36" s="47" t="inlineStr">
+        <is>
+          <t>南區</t>
+        </is>
+      </c>
+      <c r="I36" s="47" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="J36" s="47" t="inlineStr">
+        <is>
+          <t>高雄市鹽埕區</t>
+        </is>
+      </c>
+      <c r="K36" s="47" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L36" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M36" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N36" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O36" s="47" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P36" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q36" s="51" t="n">
+        <v>7</v>
+      </c>
+      <c r="R36" s="47" t="n"/>
+      <c r="S36" s="47" t="inlineStr">
+        <is>
+          <t>(H)非收訊問題</t>
+        </is>
+      </c>
+      <c r="T36" s="47" t="inlineStr">
+        <is>
+          <t>現場實測OK，客戶不接受</t>
+        </is>
+      </c>
+      <c r="U36" s="52" t="n"/>
+      <c r="V36" s="47" t="n"/>
+      <c r="W36" s="47" t="inlineStr">
+        <is>
+          <t>80301000</t>
+        </is>
+      </c>
+      <c r="X36" s="47" t="inlineStr">
+        <is>
+          <t>80311000</t>
+        </is>
+      </c>
+      <c r="Y36" s="47" t="inlineStr">
+        <is>
+          <t>80304000</t>
+        </is>
+      </c>
+      <c r="Z36" s="47" t="inlineStr">
+        <is>
+          <t>網路正常</t>
+        </is>
+      </c>
+      <c r="AA36" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 80301000(19.98),80311000(10.25),80304000(22.53),前一天最差PRB%:80301000(74.21%),80311000(54.39%),80304000(66.53%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 04:00:00 80311000(67%))</t>
+        </is>
+      </c>
+      <c r="AB36" s="44" t="inlineStr">
+        <is>
+          <t>80301000</t>
+        </is>
+      </c>
+      <c r="AC36" s="51" t="n">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="AD36" s="51" t="n">
+        <v>-112.52</v>
+      </c>
+      <c r="AE36" s="51" t="n">
+        <v>-112.23</v>
+      </c>
+      <c r="AF36" s="51" t="n">
+        <v>-112.01</v>
+      </c>
+      <c r="AG36" s="51" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AH36" s="51" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="AI36" s="51" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="AJ36" s="51" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AK36" s="51" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AL36" s="51" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AM36" s="51" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="AN36" s="51" t="n">
+        <v>28.16</v>
+      </c>
+      <c r="AO36" s="51" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="AP36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="44" t="inlineStr">
+        <is>
+          <t>80311000</t>
+        </is>
+      </c>
+      <c r="AW36" s="51" t="n">
+        <v>54.39</v>
+      </c>
+      <c r="AX36" s="51" t="n">
+        <v>-112.49</v>
+      </c>
+      <c r="AY36" s="51" t="n">
+        <v>-112.14</v>
+      </c>
+      <c r="AZ36" s="51" t="n">
+        <v>-111.85</v>
+      </c>
+      <c r="BA36" s="51" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB36" s="51" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="BC36" s="51" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="BD36" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BE36" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BF36" s="51" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="BG36" s="51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BH36" s="51" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="BI36" s="51" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="BJ36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP36" s="44" t="inlineStr">
+        <is>
+          <t>80304000</t>
+        </is>
+      </c>
+      <c r="BQ36" s="51" t="n">
+        <v>66.53</v>
+      </c>
+      <c r="BR36" s="51" t="n">
+        <v>-112.63</v>
+      </c>
+      <c r="BS36" s="51" t="n">
+        <v>-113.79</v>
+      </c>
+      <c r="BT36" s="51" t="n">
+        <v>-113.08</v>
+      </c>
+      <c r="BU36" s="51" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="BV36" s="51" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="BW36" s="51" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="BX36" s="51" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BY36" s="51" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BZ36" s="51" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="CA36" s="51" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="CB36" s="51" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="CC36" s="51" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="CD36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI36" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ36" s="47" t="n"/>
+      <c r="CK36" s="47" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL36" s="47" t="n"/>
+      <c r="CM36" s="53" t="inlineStr">
+        <is>
+          <t>官網WEB拋轉</t>
+        </is>
+      </c>
+      <c r="CN36" s="54" t="n">
+        <v>-113</v>
+      </c>
+      <c r="CO36" s="54" t="n">
+        <v>-102.5</v>
+      </c>
+      <c r="CP36" s="54" t="n">
+        <v>-99.17</v>
+      </c>
+      <c r="CQ36" s="54" t="n">
+        <v>-96.2</v>
+      </c>
+      <c r="CR36" s="54" t="n">
+        <v>-71</v>
+      </c>
+      <c r="CS36" s="54" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CT36" s="54" t="n">
+        <v>-16</v>
+      </c>
+      <c r="CU36" s="54" t="n">
+        <v>-14.67</v>
+      </c>
+      <c r="CV36" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CW36" s="54" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CX36" s="51" t="n">
+        <v>120.284276</v>
+      </c>
+      <c r="CY36" s="51" t="n">
+        <v>22.629031</v>
+      </c>
+      <c r="CZ36" s="53" t="inlineStr">
+        <is>
+          <t>因客訴地點人多，導致收訊擁擠</t>
+        </is>
+      </c>
+      <c r="DA36" s="53" t="inlineStr">
+        <is>
+          <t>用戶端問題</t>
+        </is>
+      </c>
+      <c r="DC36" s="31">
+        <f>IF(CP36&lt;-10,CP36,IF(ISERROR(AVERAGE(CN36:CR36)),"",AVERAGE(CN36:CR36)))</f>
+        <v/>
+      </c>
+      <c r="DD36" s="25">
+        <f>IF(AC36&lt;&gt;"",AC36/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE36" s="25">
+        <f>IF(AW36&lt;&gt;"",AW36/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF36" s="25">
+        <f>IF(BQ36&lt;&gt;"",BQ36/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG36" s="13">
+        <f>MAX(DD36,DE36,DF36)</f>
+        <v/>
+      </c>
+      <c r="DH36" s="14">
+        <f>IF(DG36=DD36,W36,IF(DG36=DE36,X36,IF(DG36=DF36,Y36,"")))</f>
+        <v/>
+      </c>
+      <c r="DI36" s="62">
+        <f>VLOOKUP(G36,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ36" s="4">
+        <f>IF(DC36&gt;-10,"",IF(ISERROR(DC36),"",CONCATENATE(INT(DC36/5)*5+5,"~",INT(DC36/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK36" s="4" t="n"/>
+      <c r="DL36" s="5">
+        <f>IF(AND(OR(N36="5G",N36="I5G"),O36="5GNSA"),"5G True User",IF(OR(N36="2G",N36="3G",N36="4G",N36="I4G"),"4G",IF(AND(OR(N36="5G",N36="I5G"),O36&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM36" s="63">
+        <f>COUNTIFS(AD36:AF36,"&gt;-105",AD36:AF36,"&lt;0")+COUNTIFS(AX36:AZ36,"&gt;-105",AX36:AZ36,"&lt;0")+COUNTIFS(BR36:BT36,"&gt;-105",BR36:BT36,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN36" s="11">
+        <f>ROUND(MAX(DD36,DE36,DF36)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO36" s="64">
+        <f>IF(DC36&gt;-10,"",ROUND(DC36/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP36" s="65">
+        <f>IF(R2="作業","障礙",IF(R36="障礙","障礙",IF(R36="抗爭","抗爭",IF(R36="40055重大障礙","40055重大障礙",IF(R36="非TWM問題的障礙","非TWM問題的障礙",IF(U36=35806,"非TWM問題的障礙",IF( OR(AND(AJ36&lt;&gt;"",AJ36&gt;0,AJ36&lt;0.7),       AND(AK36&lt;&gt;"",AK36&gt;0,AK36&lt;0.7),       AND(AL36&lt;&gt;"",AL36&gt;0,AL36&lt;0.7),       AND(AP36&lt;&gt;"",AP36&gt;0,AP36&lt;0.7),       AND(AQ36&lt;&gt;"",AQ36&gt;0,AQ36&lt;0.7),       AND(AR36&lt;&gt;"",AR36&gt;0,AR36&lt;0.7),       AND(AS36&lt;&gt;"",AS36&gt;0,AS36&lt;0.7),       AND(AT36&lt;&gt;"",AT36&gt;0,AT36&lt;0.7),       AND(AU36&lt;&gt;"",AU36&gt;0,AU36&lt;0.7)),"障礙",IF( OR(AND(BD36&lt;&gt;"",BD36&gt;0,BD36&lt;0.7),       AND(BE36&lt;&gt;"",BE36&gt;0,BE36&lt;0.7),       AND(BF36&lt;&gt;"",BF36&gt;0,BF36&lt;0.7),       AND(BJ36&lt;&gt;"",BJ36&gt;0,BJ36&lt;0.7),       AND(BK36&lt;&gt;"",BK36&gt;0,BK36&lt;0.7),       AND(BL36&lt;&gt;"",BL36&gt;0,BL36&lt;0.7),       AND(BM36&lt;&gt;"",BM36&gt;0,BM36&lt;0.7),       AND(BN36&lt;&gt;"",BN36&gt;0,BN36&lt;0.7),       AND(BO36&lt;&gt;"",BO36&gt;0,BO36&lt;0.7)),"障礙",IF( OR(AND(BX36&lt;&gt;"",BX36&gt;0,BX36&lt;0.7),       AND(BY36&lt;&gt;"",BY36&gt;0,BY36&lt;0.7),       AND(BZ36&lt;&gt;"",BZ36&gt;0,BZ36&lt;0.7),       AND(CD36&lt;&gt;"",CD36&gt;0,CD36&lt;0.7),       AND(CE36&lt;&gt;"",CE36&gt;0,CE36&lt;0.7),       AND(CF36&lt;&gt;"",CF36&gt;0,CF36&lt;0.7),       AND(CG36&lt;&gt;"",CG36&gt;0,CG36&lt;0.7),       AND(CH36&lt;&gt;"",CH36&gt;0,CH36&lt;0.7),       AND(CI36&lt;&gt;"",CI36&gt;0,CI36&lt;0.7)),"障礙",IF(OR(CJ36="住抗",CJ36="暫時移除設備"),"抗爭",IF(CJ36&lt;&gt;"","障礙",IF(DM36&gt;2,"干擾",IF(Q36=6,"CC6",IF( OR(AND(DD36&lt;&gt;"",DD36&gt;0.8),AND(DE36&lt;&gt;"",DE36&gt;0.8),AND(DF36&lt;&gt;"",DF36&gt;0.8)),"PRB&gt;80",IF(AND(DC36&gt;-106,DC36&lt;-30),"RSRP優於-106",IF(DC36&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ36" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA36)),"",MID(AA36,SEARCH("PM分析:",AA36)+5,SEARCH("&gt;&gt;檢查",AA36)-SEARCH("PM分析:",AA36)-5))</f>
+        <v/>
+      </c>
+      <c r="DR36" s="28">
+        <f>IF(T36="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T36="因應特別活動調整相關參數導致","TTC",IF(OR(T36="基站障礙問題查測中",T36="基站問題待料中",T36="基站障礙問題已修復",T36="施工作業已恢復",T36="基站抗爭暫時關閉",T36="基站抗爭持續關閉中",T36="基站抗爭已復站",T36="基地台抗爭拆站",T36="基地台群體抗爭",T36="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R36="作業",R36="障礙",R36="抗爭"),"基站障礙",IF(OR(T36="外在不明干擾影響，查測中",T36="干擾問題已排除",T36="外在不明干擾(大規模)影響",T36="干擾(大規模)問題已排除"),"干擾",IF(R36="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0017</t>
+        </is>
+      </c>
+      <c r="B37" s="66" t="n">
+        <v>62690932</v>
+      </c>
+      <c r="C37" s="67" t="n">
+        <v>44896.19063657407</v>
+      </c>
+      <c r="D37" s="38" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E37" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F37" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G37" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H37" s="38" t="inlineStr">
+        <is>
+          <t>南區</t>
+        </is>
+      </c>
+      <c r="I37" s="38" t="inlineStr">
+        <is>
+          <t>高雄市</t>
+        </is>
+      </c>
+      <c r="J37" s="38" t="inlineStr">
+        <is>
+          <t>高雄市楠梓區</t>
+        </is>
+      </c>
+      <c r="K37" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L37" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M37" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N37" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O37" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P37" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q37" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="R37" s="38" t="n"/>
+      <c r="S37" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T37" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U37" s="43" t="n"/>
+      <c r="V37" s="38" t="n"/>
+      <c r="W37" s="38" t="inlineStr">
+        <is>
+          <t>811T0000</t>
+        </is>
+      </c>
+      <c r="X37" s="38" t="inlineStr">
+        <is>
+          <t>81157000</t>
+        </is>
+      </c>
+      <c r="Y37" s="38" t="inlineStr">
+        <is>
+          <t>811D5000</t>
+        </is>
+      </c>
+      <c r="Z37" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA37" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 811T0000(22.58),81157000(1.88),811D5000(),前一天最差PRB%:811T0000(55.15%),81157000(35.61%),811D5000(%),前一小時100M內CA小於90%:,811C6000(67%),前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：無資訊&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 04:00:00 811T0000(82%))</t>
+        </is>
+      </c>
+      <c r="AB37" s="44" t="inlineStr">
+        <is>
+          <t>811T0000</t>
+        </is>
+      </c>
+      <c r="AC37" s="42" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="AD37" s="42" t="n">
+        <v>-116.3</v>
+      </c>
+      <c r="AE37" s="42" t="n">
+        <v>-116.1</v>
+      </c>
+      <c r="AF37" s="42" t="n">
+        <v>-116.13</v>
+      </c>
+      <c r="AG37" s="42" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="AH37" s="42" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="AI37" s="42" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="AJ37" s="42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK37" s="42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AL37" s="42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AM37" s="42" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="AN37" s="42" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="AO37" s="42" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AP37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="44" t="inlineStr">
+        <is>
+          <t>81157000</t>
+        </is>
+      </c>
+      <c r="AW37" s="42" t="n">
+        <v>35.61</v>
+      </c>
+      <c r="AX37" s="42" t="n">
+        <v>-116.74</v>
+      </c>
+      <c r="AY37" s="42" t="n">
+        <v>-116.97</v>
+      </c>
+      <c r="AZ37" s="42" t="n">
+        <v>-115.94</v>
+      </c>
+      <c r="BA37" s="42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BB37" s="42" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC37" s="42" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BD37" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BE37" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BF37" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BG37" s="42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BH37" s="42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BI37" s="42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BJ37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO37" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP37" s="44" t="inlineStr">
+        <is>
+          <t>811D5000</t>
+        </is>
+      </c>
+      <c r="BQ37" s="42" t="n"/>
+      <c r="BR37" s="42" t="n"/>
+      <c r="BS37" s="42" t="n"/>
+      <c r="BT37" s="42" t="n"/>
+      <c r="BU37" s="42" t="n"/>
+      <c r="BV37" s="42" t="n"/>
+      <c r="BW37" s="42" t="n"/>
+      <c r="BX37" s="42" t="n"/>
+      <c r="BY37" s="42" t="n"/>
+      <c r="BZ37" s="42" t="n"/>
+      <c r="CA37" s="42" t="n"/>
+      <c r="CB37" s="42" t="n"/>
+      <c r="CC37" s="42" t="n"/>
+      <c r="CD37" s="42" t="n"/>
+      <c r="CE37" s="42" t="n"/>
+      <c r="CF37" s="42" t="n"/>
+      <c r="CG37" s="42" t="n"/>
+      <c r="CH37" s="42" t="n"/>
+      <c r="CI37" s="42" t="n"/>
+      <c r="CJ37" s="38" t="n"/>
+      <c r="CK37" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL37" s="38" t="n"/>
+      <c r="CM37" s="45" t="inlineStr">
+        <is>
+          <t>官網WEB拋轉</t>
+        </is>
+      </c>
+      <c r="CN37" s="46" t="n">
+        <v>-110.5</v>
+      </c>
+      <c r="CO37" s="46" t="n">
+        <v>-99</v>
+      </c>
+      <c r="CP37" s="46" t="n">
+        <v>-96.75</v>
+      </c>
+      <c r="CQ37" s="46" t="n">
+        <v>-91</v>
+      </c>
+      <c r="CR37" s="46" t="n">
+        <v>-86</v>
+      </c>
+      <c r="CS37" s="46" t="n">
+        <v>-16</v>
+      </c>
+      <c r="CT37" s="46" t="n">
+        <v>-14.5</v>
+      </c>
+      <c r="CU37" s="46" t="n">
+        <v>-13</v>
+      </c>
+      <c r="CV37" s="46" t="n">
+        <v>-11</v>
+      </c>
+      <c r="CW37" s="46" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="CX37" s="42" t="n">
+        <v>120.301383</v>
+      </c>
+      <c r="CY37" s="42" t="n">
+        <v>22.713117</v>
+      </c>
+      <c r="CZ37" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA37" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC37" s="31">
+        <f>IF(CP37&lt;-10,CP37,IF(ISERROR(AVERAGE(CN37:CR37)),"",AVERAGE(CN37:CR37)))</f>
+        <v/>
+      </c>
+      <c r="DD37" s="25">
+        <f>IF(AC37&lt;&gt;"",AC37/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE37" s="25">
+        <f>IF(AW37&lt;&gt;"",AW37/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF37" s="25">
+        <f>IF(BQ37&lt;&gt;"",BQ37/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG37" s="13">
+        <f>MAX(DD37,DE37,DF37)</f>
+        <v/>
+      </c>
+      <c r="DH37" s="14">
+        <f>IF(DG37=DD37,W37,IF(DG37=DE37,X37,IF(DG37=DF37,Y37,"")))</f>
+        <v/>
+      </c>
+      <c r="DI37" s="62">
+        <f>VLOOKUP(G37,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ37" s="4">
+        <f>IF(DC37&gt;-10,"",IF(ISERROR(DC37),"",CONCATENATE(INT(DC37/5)*5+5,"~",INT(DC37/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK37" s="4" t="n"/>
+      <c r="DL37" s="5">
+        <f>IF(AND(OR(N37="5G",N37="I5G"),O37="5GNSA"),"5G True User",IF(OR(N37="2G",N37="3G",N37="4G",N37="I4G"),"4G",IF(AND(OR(N37="5G",N37="I5G"),O37&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM37" s="63">
+        <f>COUNTIFS(AD37:AF37,"&gt;-105",AD37:AF37,"&lt;0")+COUNTIFS(AX37:AZ37,"&gt;-105",AX37:AZ37,"&lt;0")+COUNTIFS(BR37:BT37,"&gt;-105",BR37:BT37,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN37" s="11">
+        <f>ROUND(MAX(DD37,DE37,DF37)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO37" s="64">
+        <f>IF(DC37&gt;-10,"",ROUND(DC37/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP37" s="65">
+        <f>IF(R2="作業","障礙",IF(R37="障礙","障礙",IF(R37="抗爭","抗爭",IF(R37="40055重大障礙","40055重大障礙",IF(R37="非TWM問題的障礙","非TWM問題的障礙",IF(U37=35806,"非TWM問題的障礙",IF( OR(AND(AJ37&lt;&gt;"",AJ37&gt;0,AJ37&lt;0.7),       AND(AK37&lt;&gt;"",AK37&gt;0,AK37&lt;0.7),       AND(AL37&lt;&gt;"",AL37&gt;0,AL37&lt;0.7),       AND(AP37&lt;&gt;"",AP37&gt;0,AP37&lt;0.7),       AND(AQ37&lt;&gt;"",AQ37&gt;0,AQ37&lt;0.7),       AND(AR37&lt;&gt;"",AR37&gt;0,AR37&lt;0.7),       AND(AS37&lt;&gt;"",AS37&gt;0,AS37&lt;0.7),       AND(AT37&lt;&gt;"",AT37&gt;0,AT37&lt;0.7),       AND(AU37&lt;&gt;"",AU37&gt;0,AU37&lt;0.7)),"障礙",IF( OR(AND(BD37&lt;&gt;"",BD37&gt;0,BD37&lt;0.7),       AND(BE37&lt;&gt;"",BE37&gt;0,BE37&lt;0.7),       AND(BF37&lt;&gt;"",BF37&gt;0,BF37&lt;0.7),       AND(BJ37&lt;&gt;"",BJ37&gt;0,BJ37&lt;0.7),       AND(BK37&lt;&gt;"",BK37&gt;0,BK37&lt;0.7),       AND(BL37&lt;&gt;"",BL37&gt;0,BL37&lt;0.7),       AND(BM37&lt;&gt;"",BM37&gt;0,BM37&lt;0.7),       AND(BN37&lt;&gt;"",BN37&gt;0,BN37&lt;0.7),       AND(BO37&lt;&gt;"",BO37&gt;0,BO37&lt;0.7)),"障礙",IF( OR(AND(BX37&lt;&gt;"",BX37&gt;0,BX37&lt;0.7),       AND(BY37&lt;&gt;"",BY37&gt;0,BY37&lt;0.7),       AND(BZ37&lt;&gt;"",BZ37&gt;0,BZ37&lt;0.7),       AND(CD37&lt;&gt;"",CD37&gt;0,CD37&lt;0.7),       AND(CE37&lt;&gt;"",CE37&gt;0,CE37&lt;0.7),       AND(CF37&lt;&gt;"",CF37&gt;0,CF37&lt;0.7),       AND(CG37&lt;&gt;"",CG37&gt;0,CG37&lt;0.7),       AND(CH37&lt;&gt;"",CH37&gt;0,CH37&lt;0.7),       AND(CI37&lt;&gt;"",CI37&gt;0,CI37&lt;0.7)),"障礙",IF(OR(CJ37="住抗",CJ37="暫時移除設備"),"抗爭",IF(CJ37&lt;&gt;"","障礙",IF(DM37&gt;2,"干擾",IF(Q37=6,"CC6",IF( OR(AND(DD37&lt;&gt;"",DD37&gt;0.8),AND(DE37&lt;&gt;"",DE37&gt;0.8),AND(DF37&lt;&gt;"",DF37&gt;0.8)),"PRB&gt;80",IF(AND(DC37&gt;-106,DC37&lt;-30),"RSRP優於-106",IF(DC37&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ37" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA37)),"",MID(AA37,SEARCH("PM分析:",AA37)+5,SEARCH("&gt;&gt;檢查",AA37)-SEARCH("PM分析:",AA37)-5))</f>
+        <v/>
+      </c>
+      <c r="DR37" s="28">
+        <f>IF(T37="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T37="因應特別活動調整相關參數導致","TTC",IF(OR(T37="基站障礙問題查測中",T37="基站問題待料中",T37="基站障礙問題已修復",T37="施工作業已恢復",T37="基站抗爭暫時關閉",T37="基站抗爭持續關閉中",T37="基站抗爭已復站",T37="基地台抗爭拆站",T37="基地台群體抗爭",T37="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R37="作業",R37="障礙",R37="抗爭"),"基站障礙",IF(OR(T37="外在不明干擾影響，查測中",T37="干擾問題已排除",T37="外在不明干擾(大規模)影響",T37="干擾(大規模)問題已排除"),"干擾",IF(R37="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0018</t>
+        </is>
+      </c>
+      <c r="B38" s="60" t="n">
+        <v>63564918</v>
+      </c>
+      <c r="C38" s="61" t="n">
+        <v>44896.19787037037</v>
+      </c>
+      <c r="D38" s="47" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="E38" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F38" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G38" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H38" s="47" t="inlineStr">
+        <is>
+          <t>中區</t>
+        </is>
+      </c>
+      <c r="I38" s="47" t="inlineStr">
+        <is>
+          <t>雲林縣</t>
+        </is>
+      </c>
+      <c r="J38" s="47" t="inlineStr">
+        <is>
+          <t>雲林縣麥寮鄉</t>
+        </is>
+      </c>
+      <c r="K38" s="47" t="inlineStr">
+        <is>
+          <t>客服</t>
+        </is>
+      </c>
+      <c r="L38" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M38" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N38" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O38" s="47" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P38" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q38" s="51" t="n">
+        <v>7</v>
+      </c>
+      <c r="R38" s="47" t="n"/>
+      <c r="S38" s="47" t="n"/>
+      <c r="T38" s="47" t="n"/>
+      <c r="U38" s="52" t="n"/>
+      <c r="V38" s="47" t="n"/>
+      <c r="W38" s="47" t="n"/>
+      <c r="X38" s="47" t="n"/>
+      <c r="Y38" s="47" t="n"/>
+      <c r="Z38" s="47" t="inlineStr">
+        <is>
+          <t>網路正常</t>
+        </is>
+      </c>
+      <c r="AA38" s="52" t="inlineStr">
+        <is>
+          <t>PM分析:</t>
+        </is>
+      </c>
+      <c r="AB38" s="44" t="n"/>
+      <c r="AC38" s="51" t="n"/>
+      <c r="AD38" s="51" t="n"/>
+      <c r="AE38" s="51" t="n"/>
+      <c r="AF38" s="51" t="n"/>
+      <c r="AG38" s="51" t="n"/>
+      <c r="AH38" s="51" t="n"/>
+      <c r="AI38" s="51" t="n"/>
+      <c r="AJ38" s="51" t="n"/>
+      <c r="AK38" s="51" t="n"/>
+      <c r="AL38" s="51" t="n"/>
+      <c r="AM38" s="51" t="n"/>
+      <c r="AN38" s="51" t="n"/>
+      <c r="AO38" s="51" t="n"/>
+      <c r="AP38" s="51" t="n"/>
+      <c r="AQ38" s="51" t="n"/>
+      <c r="AR38" s="51" t="n"/>
+      <c r="AS38" s="51" t="n"/>
+      <c r="AT38" s="51" t="n"/>
+      <c r="AU38" s="51" t="n"/>
+      <c r="AV38" s="44" t="n"/>
+      <c r="AW38" s="51" t="n"/>
+      <c r="AX38" s="51" t="n"/>
+      <c r="AY38" s="51" t="n"/>
+      <c r="AZ38" s="51" t="n"/>
+      <c r="BA38" s="51" t="n"/>
+      <c r="BB38" s="51" t="n"/>
+      <c r="BC38" s="51" t="n"/>
+      <c r="BD38" s="51" t="n"/>
+      <c r="BE38" s="51" t="n"/>
+      <c r="BF38" s="51" t="n"/>
+      <c r="BG38" s="51" t="n"/>
+      <c r="BH38" s="51" t="n"/>
+      <c r="BI38" s="51" t="n"/>
+      <c r="BJ38" s="51" t="n"/>
+      <c r="BK38" s="51" t="n"/>
+      <c r="BL38" s="51" t="n"/>
+      <c r="BM38" s="51" t="n"/>
+      <c r="BN38" s="51" t="n"/>
+      <c r="BO38" s="51" t="n"/>
+      <c r="BP38" s="44" t="n"/>
+      <c r="BQ38" s="51" t="n"/>
+      <c r="BR38" s="51" t="n"/>
+      <c r="BS38" s="51" t="n"/>
+      <c r="BT38" s="51" t="n"/>
+      <c r="BU38" s="51" t="n"/>
+      <c r="BV38" s="51" t="n"/>
+      <c r="BW38" s="51" t="n"/>
+      <c r="BX38" s="51" t="n"/>
+      <c r="BY38" s="51" t="n"/>
+      <c r="BZ38" s="51" t="n"/>
+      <c r="CA38" s="51" t="n"/>
+      <c r="CB38" s="51" t="n"/>
+      <c r="CC38" s="51" t="n"/>
+      <c r="CD38" s="51" t="n"/>
+      <c r="CE38" s="51" t="n"/>
+      <c r="CF38" s="51" t="n"/>
+      <c r="CG38" s="51" t="n"/>
+      <c r="CH38" s="51" t="n"/>
+      <c r="CI38" s="51" t="n"/>
+      <c r="CJ38" s="47" t="n"/>
+      <c r="CK38" s="47" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL38" s="47" t="n"/>
+      <c r="CM38" s="53" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN38" s="54" t="n">
+        <v>-107</v>
+      </c>
+      <c r="CO38" s="54" t="n">
+        <v>-98</v>
+      </c>
+      <c r="CP38" s="54" t="n"/>
+      <c r="CQ38" s="54" t="n">
+        <v>-89</v>
+      </c>
+      <c r="CR38" s="54" t="n">
+        <v>-86</v>
+      </c>
+      <c r="CS38" s="54" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CT38" s="54" t="n">
+        <v>-12</v>
+      </c>
+      <c r="CU38" s="54" t="n"/>
+      <c r="CV38" s="54" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CW38" s="54" t="n">
+        <v>-3</v>
+      </c>
+      <c r="CX38" s="51" t="n">
+        <v>120.2672969</v>
+      </c>
+      <c r="CY38" s="51" t="n">
+        <v>23.7971297</v>
+      </c>
+      <c r="CZ38" s="53" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA38" s="53" t="inlineStr">
+        <is>
+          <t>用戶端問題</t>
+        </is>
+      </c>
+      <c r="DC38" s="31">
+        <f>IF(CP38&lt;-10,CP38,IF(ISERROR(AVERAGE(CN38:CR38)),"",AVERAGE(CN38:CR38)))</f>
+        <v/>
+      </c>
+      <c r="DD38" s="25">
+        <f>IF(AC38&lt;&gt;"",AC38/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE38" s="25">
+        <f>IF(AW38&lt;&gt;"",AW38/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF38" s="25">
+        <f>IF(BQ38&lt;&gt;"",BQ38/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG38" s="13">
+        <f>MAX(DD38,DE38,DF38)</f>
+        <v/>
+      </c>
+      <c r="DH38" s="14">
+        <f>IF(DG38=DD38,W38,IF(DG38=DE38,X38,IF(DG38=DF38,Y38,"")))</f>
+        <v/>
+      </c>
+      <c r="DI38" s="62">
+        <f>VLOOKUP(G38,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ38" s="4">
+        <f>IF(DC38&gt;-10,"",IF(ISERROR(DC38),"",CONCATENATE(INT(DC38/5)*5+5,"~",INT(DC38/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK38" s="4" t="n"/>
+      <c r="DL38" s="5">
+        <f>IF(AND(OR(N38="5G",N38="I5G"),O38="5GNSA"),"5G True User",IF(OR(N38="2G",N38="3G",N38="4G",N38="I4G"),"4G",IF(AND(OR(N38="5G",N38="I5G"),O38&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM38" s="63">
+        <f>COUNTIFS(AD38:AF38,"&gt;-105",AD38:AF38,"&lt;0")+COUNTIFS(AX38:AZ38,"&gt;-105",AX38:AZ38,"&lt;0")+COUNTIFS(BR38:BT38,"&gt;-105",BR38:BT38,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN38" s="11">
+        <f>ROUND(MAX(DD38,DE38,DF38)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO38" s="64">
+        <f>IF(DC38&gt;-10,"",ROUND(DC38/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP38" s="65">
+        <f>IF(R2="作業","障礙",IF(R38="障礙","障礙",IF(R38="抗爭","抗爭",IF(R38="40055重大障礙","40055重大障礙",IF(R38="非TWM問題的障礙","非TWM問題的障礙",IF(U38=35806,"非TWM問題的障礙",IF( OR(AND(AJ38&lt;&gt;"",AJ38&gt;0,AJ38&lt;0.7),       AND(AK38&lt;&gt;"",AK38&gt;0,AK38&lt;0.7),       AND(AL38&lt;&gt;"",AL38&gt;0,AL38&lt;0.7),       AND(AP38&lt;&gt;"",AP38&gt;0,AP38&lt;0.7),       AND(AQ38&lt;&gt;"",AQ38&gt;0,AQ38&lt;0.7),       AND(AR38&lt;&gt;"",AR38&gt;0,AR38&lt;0.7),       AND(AS38&lt;&gt;"",AS38&gt;0,AS38&lt;0.7),       AND(AT38&lt;&gt;"",AT38&gt;0,AT38&lt;0.7),       AND(AU38&lt;&gt;"",AU38&gt;0,AU38&lt;0.7)),"障礙",IF( OR(AND(BD38&lt;&gt;"",BD38&gt;0,BD38&lt;0.7),       AND(BE38&lt;&gt;"",BE38&gt;0,BE38&lt;0.7),       AND(BF38&lt;&gt;"",BF38&gt;0,BF38&lt;0.7),       AND(BJ38&lt;&gt;"",BJ38&gt;0,BJ38&lt;0.7),       AND(BK38&lt;&gt;"",BK38&gt;0,BK38&lt;0.7),       AND(BL38&lt;&gt;"",BL38&gt;0,BL38&lt;0.7),       AND(BM38&lt;&gt;"",BM38&gt;0,BM38&lt;0.7),       AND(BN38&lt;&gt;"",BN38&gt;0,BN38&lt;0.7),       AND(BO38&lt;&gt;"",BO38&gt;0,BO38&lt;0.7)),"障礙",IF( OR(AND(BX38&lt;&gt;"",BX38&gt;0,BX38&lt;0.7),       AND(BY38&lt;&gt;"",BY38&gt;0,BY38&lt;0.7),       AND(BZ38&lt;&gt;"",BZ38&gt;0,BZ38&lt;0.7),       AND(CD38&lt;&gt;"",CD38&gt;0,CD38&lt;0.7),       AND(CE38&lt;&gt;"",CE38&gt;0,CE38&lt;0.7),       AND(CF38&lt;&gt;"",CF38&gt;0,CF38&lt;0.7),       AND(CG38&lt;&gt;"",CG38&gt;0,CG38&lt;0.7),       AND(CH38&lt;&gt;"",CH38&gt;0,CH38&lt;0.7),       AND(CI38&lt;&gt;"",CI38&gt;0,CI38&lt;0.7)),"障礙",IF(OR(CJ38="住抗",CJ38="暫時移除設備"),"抗爭",IF(CJ38&lt;&gt;"","障礙",IF(DM38&gt;2,"干擾",IF(Q38=6,"CC6",IF( OR(AND(DD38&lt;&gt;"",DD38&gt;0.8),AND(DE38&lt;&gt;"",DE38&gt;0.8),AND(DF38&lt;&gt;"",DF38&gt;0.8)),"PRB&gt;80",IF(AND(DC38&gt;-106,DC38&lt;-30),"RSRP優於-106",IF(DC38&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ38" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA38)),"",MID(AA38,SEARCH("PM分析:",AA38)+5,SEARCH("&gt;&gt;檢查",AA38)-SEARCH("PM分析:",AA38)-5))</f>
+        <v/>
+      </c>
+      <c r="DR38" s="28">
+        <f>IF(T38="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T38="因應特別活動調整相關參數導致","TTC",IF(OR(T38="基站障礙問題查測中",T38="基站問題待料中",T38="基站障礙問題已修復",T38="施工作業已恢復",T38="基站抗爭暫時關閉",T38="基站抗爭持續關閉中",T38="基站抗爭已復站",T38="基地台抗爭拆站",T38="基地台群體抗爭",T38="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R38="作業",R38="障礙",R38="抗爭"),"基站障礙",IF(OR(T38="外在不明干擾影響，查測中",T38="干擾問題已排除",T38="外在不明干擾(大規模)影響",T38="干擾(大規模)問題已排除"),"干擾",IF(R38="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0019</t>
+        </is>
+      </c>
+      <c r="B39" s="66" t="n">
+        <v>65395567</v>
+      </c>
+      <c r="C39" s="67" t="n">
+        <v>44896.2184375</v>
+      </c>
+      <c r="D39" s="38" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="E39" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F39" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G39" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H39" s="38" t="inlineStr">
+        <is>
+          <t>南區</t>
+        </is>
+      </c>
+      <c r="I39" s="38" t="inlineStr">
+        <is>
+          <t>台南市</t>
+        </is>
+      </c>
+      <c r="J39" s="38" t="inlineStr">
+        <is>
+          <t>台南市中西區</t>
+        </is>
+      </c>
+      <c r="K39" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L39" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M39" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N39" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O39" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="P39" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q39" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" s="38" t="n"/>
+      <c r="S39" s="38" t="inlineStr">
+        <is>
+          <t>(H)非收訊問題</t>
+        </is>
+      </c>
+      <c r="T39" s="38" t="inlineStr">
+        <is>
+          <t>去電用戶，請用戶重新開關機再觀察</t>
+        </is>
+      </c>
+      <c r="U39" s="43" t="n"/>
+      <c r="V39" s="38" t="n"/>
+      <c r="W39" s="38" t="inlineStr">
+        <is>
+          <t>70053000</t>
+        </is>
+      </c>
+      <c r="X39" s="38" t="inlineStr">
+        <is>
+          <t>700L4000</t>
+        </is>
+      </c>
+      <c r="Y39" s="38" t="inlineStr">
+        <is>
+          <t>70031000</t>
+        </is>
+      </c>
+      <c r="Z39" s="38" t="inlineStr">
+        <is>
+          <t>網路正常</t>
+        </is>
+      </c>
+      <c r="AA39" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 70053000(8.67),700L4000(8.81),70031000(4.71),前一天最差PRB%:70053000(43.36%),700L4000(39.36%),70031000(36.77%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:訊號強度正常&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前3小時內是否有RRC Connection Setup Success Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前0小時內(0表示進件當時)是否有派工情況：否&gt;&gt;檢查HLR-MAX REQUESTED BANDWIDTH是否有DL&lt;226000000且UL&lt;60000000情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(100%)情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(10%～99%)情況：否&gt;&gt;檢查MDT L700 RSRQ是否有符合最差、平均、最佳各區間情況：否 (MIN:-15.5，平均:-11.85，MAX:-10)&gt;&gt;檢查MDT L700 RSRP是否有&lt;-105dBm 情況：否</t>
+        </is>
+      </c>
+      <c r="AB39" s="44" t="inlineStr">
+        <is>
+          <t>70053000</t>
+        </is>
+      </c>
+      <c r="AC39" s="42" t="n">
+        <v>43.36</v>
+      </c>
+      <c r="AD39" s="42" t="n">
+        <v>-116.12</v>
+      </c>
+      <c r="AE39" s="42" t="n">
+        <v>-116.08</v>
+      </c>
+      <c r="AF39" s="42" t="n">
+        <v>-115.65</v>
+      </c>
+      <c r="AG39" s="42" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AH39" s="42" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AI39" s="42" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AJ39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="42" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AN39" s="42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO39" s="42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="44" t="inlineStr">
+        <is>
+          <t>700L4000</t>
+        </is>
+      </c>
+      <c r="AW39" s="42" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="AX39" s="42" t="n">
+        <v>-108.4</v>
+      </c>
+      <c r="AY39" s="42" t="n">
+        <v>-109.12</v>
+      </c>
+      <c r="AZ39" s="42" t="n">
+        <v>-108.99</v>
+      </c>
+      <c r="BA39" s="42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BB39" s="42" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="BC39" s="42" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="BD39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG39" s="42" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="BH39" s="42" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="BI39" s="42" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="BJ39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP39" s="44" t="inlineStr">
+        <is>
+          <t>70031000</t>
+        </is>
+      </c>
+      <c r="BQ39" s="42" t="n">
+        <v>36.77</v>
+      </c>
+      <c r="BR39" s="42" t="n">
+        <v>-112.26</v>
+      </c>
+      <c r="BS39" s="42" t="n">
+        <v>-112.11</v>
+      </c>
+      <c r="BT39" s="42" t="n">
+        <v>-111.95</v>
+      </c>
+      <c r="BU39" s="42" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BV39" s="42" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="BW39" s="42" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="BX39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA39" s="42" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="CB39" s="42" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="CC39" s="42" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="CD39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH39" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI39" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CJ39" s="38" t="n"/>
+      <c r="CK39" s="38" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL39" s="38" t="n"/>
+      <c r="CM39" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN39" s="46" t="n">
+        <v>-103</v>
+      </c>
+      <c r="CO39" s="46" t="n">
+        <v>-98</v>
+      </c>
+      <c r="CP39" s="46" t="n">
+        <v>-92.7</v>
+      </c>
+      <c r="CQ39" s="46" t="n">
+        <v>-91</v>
+      </c>
+      <c r="CR39" s="46" t="n">
+        <v>-72</v>
+      </c>
+      <c r="CS39" s="46" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="CT39" s="46" t="n">
+        <v>-13</v>
+      </c>
+      <c r="CU39" s="46" t="n">
+        <v>-11.85</v>
+      </c>
+      <c r="CV39" s="46" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="CW39" s="46" t="n">
+        <v>-10</v>
+      </c>
+      <c r="CX39" s="42" t="n">
+        <v>120.2074627</v>
+      </c>
+      <c r="CY39" s="42" t="n">
+        <v>22.9900745</v>
+      </c>
+      <c r="CZ39" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA39" s="45" t="inlineStr">
+        <is>
+          <t>人多擁擠</t>
+        </is>
+      </c>
+      <c r="DC39" s="31">
+        <f>IF(CP39&lt;-10,CP39,IF(ISERROR(AVERAGE(CN39:CR39)),"",AVERAGE(CN39:CR39)))</f>
+        <v/>
+      </c>
+      <c r="DD39" s="25">
+        <f>IF(AC39&lt;&gt;"",AC39/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE39" s="25">
+        <f>IF(AW39&lt;&gt;"",AW39/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF39" s="25">
+        <f>IF(BQ39&lt;&gt;"",BQ39/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG39" s="13">
+        <f>MAX(DD39,DE39,DF39)</f>
+        <v/>
+      </c>
+      <c r="DH39" s="14">
+        <f>IF(DG39=DD39,W39,IF(DG39=DE39,X39,IF(DG39=DF39,Y39,"")))</f>
+        <v/>
+      </c>
+      <c r="DI39" s="62">
+        <f>VLOOKUP(G39,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ39" s="4">
+        <f>IF(DC39&gt;-10,"",IF(ISERROR(DC39),"",CONCATENATE(INT(DC39/5)*5+5,"~",INT(DC39/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK39" s="4" t="n"/>
+      <c r="DL39" s="5">
+        <f>IF(AND(OR(N39="5G",N39="I5G"),O39="5GNSA"),"5G True User",IF(OR(N39="2G",N39="3G",N39="4G",N39="I4G"),"4G",IF(AND(OR(N39="5G",N39="I5G"),O39&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM39" s="63">
+        <f>COUNTIFS(AD39:AF39,"&gt;-105",AD39:AF39,"&lt;0")+COUNTIFS(AX39:AZ39,"&gt;-105",AX39:AZ39,"&lt;0")+COUNTIFS(BR39:BT39,"&gt;-105",BR39:BT39,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN39" s="11">
+        <f>ROUND(MAX(DD39,DE39,DF39)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO39" s="64">
+        <f>IF(DC39&gt;-10,"",ROUND(DC39/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP39" s="65">
+        <f>IF(R2="作業","障礙",IF(R39="障礙","障礙",IF(R39="抗爭","抗爭",IF(R39="40055重大障礙","40055重大障礙",IF(R39="非TWM問題的障礙","非TWM問題的障礙",IF(U39=35806,"非TWM問題的障礙",IF( OR(AND(AJ39&lt;&gt;"",AJ39&gt;0,AJ39&lt;0.7),       AND(AK39&lt;&gt;"",AK39&gt;0,AK39&lt;0.7),       AND(AL39&lt;&gt;"",AL39&gt;0,AL39&lt;0.7),       AND(AP39&lt;&gt;"",AP39&gt;0,AP39&lt;0.7),       AND(AQ39&lt;&gt;"",AQ39&gt;0,AQ39&lt;0.7),       AND(AR39&lt;&gt;"",AR39&gt;0,AR39&lt;0.7),       AND(AS39&lt;&gt;"",AS39&gt;0,AS39&lt;0.7),       AND(AT39&lt;&gt;"",AT39&gt;0,AT39&lt;0.7),       AND(AU39&lt;&gt;"",AU39&gt;0,AU39&lt;0.7)),"障礙",IF( OR(AND(BD39&lt;&gt;"",BD39&gt;0,BD39&lt;0.7),       AND(BE39&lt;&gt;"",BE39&gt;0,BE39&lt;0.7),       AND(BF39&lt;&gt;"",BF39&gt;0,BF39&lt;0.7),       AND(BJ39&lt;&gt;"",BJ39&gt;0,BJ39&lt;0.7),       AND(BK39&lt;&gt;"",BK39&gt;0,BK39&lt;0.7),       AND(BL39&lt;&gt;"",BL39&gt;0,BL39&lt;0.7),       AND(BM39&lt;&gt;"",BM39&gt;0,BM39&lt;0.7),       AND(BN39&lt;&gt;"",BN39&gt;0,BN39&lt;0.7),       AND(BO39&lt;&gt;"",BO39&gt;0,BO39&lt;0.7)),"障礙",IF( OR(AND(BX39&lt;&gt;"",BX39&gt;0,BX39&lt;0.7),       AND(BY39&lt;&gt;"",BY39&gt;0,BY39&lt;0.7),       AND(BZ39&lt;&gt;"",BZ39&gt;0,BZ39&lt;0.7),       AND(CD39&lt;&gt;"",CD39&gt;0,CD39&lt;0.7),       AND(CE39&lt;&gt;"",CE39&gt;0,CE39&lt;0.7),       AND(CF39&lt;&gt;"",CF39&gt;0,CF39&lt;0.7),       AND(CG39&lt;&gt;"",CG39&gt;0,CG39&lt;0.7),       AND(CH39&lt;&gt;"",CH39&gt;0,CH39&lt;0.7),       AND(CI39&lt;&gt;"",CI39&gt;0,CI39&lt;0.7)),"障礙",IF(OR(CJ39="住抗",CJ39="暫時移除設備"),"抗爭",IF(CJ39&lt;&gt;"","障礙",IF(DM39&gt;2,"干擾",IF(Q39=6,"CC6",IF( OR(AND(DD39&lt;&gt;"",DD39&gt;0.8),AND(DE39&lt;&gt;"",DE39&gt;0.8),AND(DF39&lt;&gt;"",DF39&gt;0.8)),"PRB&gt;80",IF(AND(DC39&gt;-106,DC39&lt;-30),"RSRP優於-106",IF(DC39&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ39" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA39)),"",MID(AA39,SEARCH("PM分析:",AA39)+5,SEARCH("&gt;&gt;檢查",AA39)-SEARCH("PM分析:",AA39)-5))</f>
+        <v/>
+      </c>
+      <c r="DR39" s="28">
+        <f>IF(T39="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T39="因應特別活動調整相關參數導致","TTC",IF(OR(T39="基站障礙問題查測中",T39="基站問題待料中",T39="基站障礙問題已修復",T39="施工作業已恢復",T39="基站抗爭暫時關閉",T39="基站抗爭持續關閉中",T39="基站抗爭已復站",T39="基地台抗爭拆站",T39="基地台群體抗爭",T39="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R39="作業",R39="障礙",R39="抗爭"),"基站障礙",IF(OR(T39="外在不明干擾影響，查測中",T39="干擾問題已排除",T39="外在不明干擾(大規模)影響",T39="干擾(大規模)問題已排除"),"干擾",IF(R39="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0020</t>
+        </is>
+      </c>
+      <c r="B40" s="60" t="n">
+        <v>66051376</v>
+      </c>
+      <c r="C40" s="61" t="n">
+        <v>44896.3084837963</v>
+      </c>
+      <c r="D40" s="47" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E40" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F40" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G40" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H40" s="47" t="inlineStr">
+        <is>
+          <t>中區</t>
+        </is>
+      </c>
+      <c r="I40" s="47" t="inlineStr">
+        <is>
+          <t>雲林縣</t>
+        </is>
+      </c>
+      <c r="J40" s="47" t="inlineStr">
+        <is>
+          <t>雲林縣斗六市</t>
+        </is>
+      </c>
+      <c r="K40" s="47" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L40" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M40" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N40" s="47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O40" s="47" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P40" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q40" s="51" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" s="47" t="n"/>
+      <c r="S40" s="47" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T40" s="47" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U40" s="52" t="n"/>
+      <c r="V40" s="47" t="n"/>
+      <c r="W40" s="47" t="inlineStr">
+        <is>
+          <t>64032000</t>
+        </is>
+      </c>
+      <c r="X40" s="47" t="inlineStr">
+        <is>
+          <t>64002000</t>
+        </is>
+      </c>
+      <c r="Y40" s="47" t="inlineStr">
+        <is>
+          <t>64037000</t>
+        </is>
+      </c>
+      <c r="Z40" s="47" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA40" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 64032000(9.83),64002000(22.02),64037000(10.04),前一天最差PRB%:64032000(46.06%),64002000(55.51%),64037000(32.95%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 07:00:00 64002000(76%))</t>
+        </is>
+      </c>
+      <c r="AB40" s="44" t="inlineStr">
+        <is>
+          <t>64032000</t>
+        </is>
+      </c>
+      <c r="AC40" s="51" t="n">
+        <v>46.06</v>
+      </c>
+      <c r="AD40" s="51" t="n">
+        <v>-115.62</v>
+      </c>
+      <c r="AE40" s="51" t="n">
+        <v>-116.05</v>
+      </c>
+      <c r="AF40" s="51" t="n">
+        <v>-116.24</v>
+      </c>
+      <c r="AG40" s="51" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="AH40" s="51" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="AI40" s="51" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AJ40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="51" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="AN40" s="51" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AO40" s="51" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AP40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="44" t="inlineStr">
+        <is>
+          <t>64002000</t>
+        </is>
+      </c>
+      <c r="AW40" s="51" t="n">
+        <v>55.51</v>
+      </c>
+      <c r="AX40" s="51" t="n">
+        <v>-113.04</v>
+      </c>
+      <c r="AY40" s="51" t="n">
+        <v>-115.02</v>
+      </c>
+      <c r="AZ40" s="51" t="n">
+        <v>-115.45</v>
+      </c>
+      <c r="BA40" s="51" t="n">
+        <v>24.11</v>
+      </c>
+      <c r="BB40" s="51" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="BC40" s="51" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="BD40" s="51" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="BE40" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BF40" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BG40" s="51" t="n">
+        <v>22.02</v>
+      </c>
+      <c r="BH40" s="51" t="n">
+        <v>19.09</v>
+      </c>
+      <c r="BI40" s="51" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="BJ40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP40" s="44" t="inlineStr">
+        <is>
+          <t>64037000</t>
+        </is>
+      </c>
+      <c r="BQ40" s="51" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="BR40" s="51" t="n">
+        <v>-113.55</v>
+      </c>
+      <c r="BS40" s="51" t="n">
+        <v>-114.56</v>
+      </c>
+      <c r="BT40" s="51" t="n">
+        <v>-115.05</v>
+      </c>
+      <c r="BU40" s="51" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="BV40" s="51" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="BW40" s="51" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BX40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA40" s="51" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="CB40" s="51" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="CC40" s="51" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="CD40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI40" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ40" s="47" t="n"/>
+      <c r="CK40" s="47" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL40" s="47" t="n"/>
+      <c r="CM40" s="53" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN40" s="54" t="n">
+        <v>-99.5</v>
+      </c>
+      <c r="CO40" s="54" t="n">
+        <v>-93</v>
+      </c>
+      <c r="CP40" s="54" t="n">
+        <v>-89.63</v>
+      </c>
+      <c r="CQ40" s="54" t="n">
+        <v>-83</v>
+      </c>
+      <c r="CR40" s="54" t="n">
+        <v>-80</v>
+      </c>
+      <c r="CS40" s="54" t="n">
+        <v>-14</v>
+      </c>
+      <c r="CT40" s="54" t="n">
+        <v>-13</v>
+      </c>
+      <c r="CU40" s="54" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="CV40" s="54" t="n">
+        <v>-11</v>
+      </c>
+      <c r="CW40" s="54" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CX40" s="51" t="n">
+        <v>120.5409089</v>
+      </c>
+      <c r="CY40" s="51" t="n">
+        <v>23.7077947</v>
+      </c>
+      <c r="CZ40" s="53" t="inlineStr">
+        <is>
+          <t>因客訴地點人多，導致收訊擁擠</t>
+        </is>
+      </c>
+      <c r="DA40" s="53" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC40" s="31">
+        <f>IF(CP40&lt;-10,CP40,IF(ISERROR(AVERAGE(CN40:CR40)),"",AVERAGE(CN40:CR40)))</f>
+        <v/>
+      </c>
+      <c r="DD40" s="25">
+        <f>IF(AC40&lt;&gt;"",AC40/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE40" s="25">
+        <f>IF(AW40&lt;&gt;"",AW40/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF40" s="25">
+        <f>IF(BQ40&lt;&gt;"",BQ40/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG40" s="13">
+        <f>MAX(DD40,DE40,DF40)</f>
+        <v/>
+      </c>
+      <c r="DH40" s="14">
+        <f>IF(DG40=DD40,W40,IF(DG40=DE40,X40,IF(DG40=DF40,Y40,"")))</f>
+        <v/>
+      </c>
+      <c r="DI40" s="62">
+        <f>VLOOKUP(G40,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ40" s="4">
+        <f>IF(DC40&gt;-10,"",IF(ISERROR(DC40),"",CONCATENATE(INT(DC40/5)*5+5,"~",INT(DC40/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK40" s="4" t="n"/>
+      <c r="DL40" s="5">
+        <f>IF(AND(OR(N40="5G",N40="I5G"),O40="5GNSA"),"5G True User",IF(OR(N40="2G",N40="3G",N40="4G",N40="I4G"),"4G",IF(AND(OR(N40="5G",N40="I5G"),O40&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM40" s="63">
+        <f>COUNTIFS(AD40:AF40,"&gt;-105",AD40:AF40,"&lt;0")+COUNTIFS(AX40:AZ40,"&gt;-105",AX40:AZ40,"&lt;0")+COUNTIFS(BR40:BT40,"&gt;-105",BR40:BT40,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN40" s="11">
+        <f>ROUND(MAX(DD40,DE40,DF40)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO40" s="64">
+        <f>IF(DC40&gt;-10,"",ROUND(DC40/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP40" s="65">
+        <f>IF(R2="作業","障礙",IF(R40="障礙","障礙",IF(R40="抗爭","抗爭",IF(R40="40055重大障礙","40055重大障礙",IF(R40="非TWM問題的障礙","非TWM問題的障礙",IF(U40=35806,"非TWM問題的障礙",IF( OR(AND(AJ40&lt;&gt;"",AJ40&gt;0,AJ40&lt;0.7),       AND(AK40&lt;&gt;"",AK40&gt;0,AK40&lt;0.7),       AND(AL40&lt;&gt;"",AL40&gt;0,AL40&lt;0.7),       AND(AP40&lt;&gt;"",AP40&gt;0,AP40&lt;0.7),       AND(AQ40&lt;&gt;"",AQ40&gt;0,AQ40&lt;0.7),       AND(AR40&lt;&gt;"",AR40&gt;0,AR40&lt;0.7),       AND(AS40&lt;&gt;"",AS40&gt;0,AS40&lt;0.7),       AND(AT40&lt;&gt;"",AT40&gt;0,AT40&lt;0.7),       AND(AU40&lt;&gt;"",AU40&gt;0,AU40&lt;0.7)),"障礙",IF( OR(AND(BD40&lt;&gt;"",BD40&gt;0,BD40&lt;0.7),       AND(BE40&lt;&gt;"",BE40&gt;0,BE40&lt;0.7),       AND(BF40&lt;&gt;"",BF40&gt;0,BF40&lt;0.7),       AND(BJ40&lt;&gt;"",BJ40&gt;0,BJ40&lt;0.7),       AND(BK40&lt;&gt;"",BK40&gt;0,BK40&lt;0.7),       AND(BL40&lt;&gt;"",BL40&gt;0,BL40&lt;0.7),       AND(BM40&lt;&gt;"",BM40&gt;0,BM40&lt;0.7),       AND(BN40&lt;&gt;"",BN40&gt;0,BN40&lt;0.7),       AND(BO40&lt;&gt;"",BO40&gt;0,BO40&lt;0.7)),"障礙",IF( OR(AND(BX40&lt;&gt;"",BX40&gt;0,BX40&lt;0.7),       AND(BY40&lt;&gt;"",BY40&gt;0,BY40&lt;0.7),       AND(BZ40&lt;&gt;"",BZ40&gt;0,BZ40&lt;0.7),       AND(CD40&lt;&gt;"",CD40&gt;0,CD40&lt;0.7),       AND(CE40&lt;&gt;"",CE40&gt;0,CE40&lt;0.7),       AND(CF40&lt;&gt;"",CF40&gt;0,CF40&lt;0.7),       AND(CG40&lt;&gt;"",CG40&gt;0,CG40&lt;0.7),       AND(CH40&lt;&gt;"",CH40&gt;0,CH40&lt;0.7),       AND(CI40&lt;&gt;"",CI40&gt;0,CI40&lt;0.7)),"障礙",IF(OR(CJ40="住抗",CJ40="暫時移除設備"),"抗爭",IF(CJ40&lt;&gt;"","障礙",IF(DM40&gt;2,"干擾",IF(Q40=6,"CC6",IF( OR(AND(DD40&lt;&gt;"",DD40&gt;0.8),AND(DE40&lt;&gt;"",DE40&gt;0.8),AND(DF40&lt;&gt;"",DF40&gt;0.8)),"PRB&gt;80",IF(AND(DC40&gt;-106,DC40&lt;-30),"RSRP優於-106",IF(DC40&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ40" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA40)),"",MID(AA40,SEARCH("PM分析:",AA40)+5,SEARCH("&gt;&gt;檢查",AA40)-SEARCH("PM分析:",AA40)-5))</f>
+        <v/>
+      </c>
+      <c r="DR40" s="28">
+        <f>IF(T40="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T40="因應特別活動調整相關參數導致","TTC",IF(OR(T40="基站障礙問題查測中",T40="基站問題待料中",T40="基站障礙問題已修復",T40="施工作業已恢復",T40="基站抗爭暫時關閉",T40="基站抗爭持續關閉中",T40="基站抗爭已復站",T40="基地台抗爭拆站",T40="基地台群體抗爭",T40="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R40="作業",R40="障礙",R40="抗爭"),"基站障礙",IF(OR(T40="外在不明干擾影響，查測中",T40="干擾問題已排除",T40="外在不明干擾(大規模)影響",T40="干擾(大規模)問題已排除"),"干擾",IF(R40="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0021</t>
+        </is>
+      </c>
+      <c r="B41" s="66" t="n">
+        <v>63268714</v>
+      </c>
+      <c r="C41" s="67" t="n">
+        <v>44896.31506944444</v>
+      </c>
+      <c r="D41" s="38" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="E41" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F41" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G41" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H41" s="38" t="inlineStr">
+        <is>
+          <t>中區</t>
+        </is>
+      </c>
+      <c r="I41" s="38" t="inlineStr">
+        <is>
+          <t>彰化縣</t>
+        </is>
+      </c>
+      <c r="J41" s="38" t="inlineStr">
+        <is>
+          <t>彰化縣花壇鄉</t>
+        </is>
+      </c>
+      <c r="K41" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L41" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M41" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N41" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O41" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P41" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q41" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" s="38" t="n"/>
+      <c r="S41" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T41" s="38" t="inlineStr">
+        <is>
+          <t>4G正常、5G訊號不佳</t>
+        </is>
+      </c>
+      <c r="U41" s="43" t="n"/>
+      <c r="V41" s="38" t="n"/>
+      <c r="W41" s="38" t="inlineStr">
+        <is>
+          <t>50309000</t>
+        </is>
+      </c>
+      <c r="X41" s="38" t="inlineStr">
+        <is>
+          <t>50387000</t>
+        </is>
+      </c>
+      <c r="Y41" s="38" t="inlineStr">
+        <is>
+          <t>50308000</t>
+        </is>
+      </c>
+      <c r="Z41" s="38" t="inlineStr">
+        <is>
+          <t>網路正常</t>
+        </is>
+      </c>
+      <c r="AA41" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 50309000(22.89),50387000(21.50),50308000(20.89),前一天最差PRB%:50309000(57.26%),50387000(78.54%),50308000(57.17%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 07:00:00 50309000(82%))</t>
+        </is>
+      </c>
+      <c r="AB41" s="44" t="inlineStr">
+        <is>
+          <t>50309000</t>
+        </is>
+      </c>
+      <c r="AC41" s="42" t="n">
+        <v>57.26</v>
+      </c>
+      <c r="AD41" s="42" t="n">
+        <v>-113.3</v>
+      </c>
+      <c r="AE41" s="42" t="n">
+        <v>-114.48</v>
+      </c>
+      <c r="AF41" s="42" t="n">
+        <v>-115.14</v>
+      </c>
+      <c r="AG41" s="42" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="AH41" s="42" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="AI41" s="42" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="AJ41" s="42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AK41" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL41" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AM41" s="42" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="AN41" s="42" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="AO41" s="42" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AP41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="44" t="inlineStr">
+        <is>
+          <t>50387000</t>
+        </is>
+      </c>
+      <c r="AW41" s="42" t="n">
+        <v>78.54000000000001</v>
+      </c>
+      <c r="AX41" s="42" t="n">
+        <v>-113.41</v>
+      </c>
+      <c r="AY41" s="42" t="n">
+        <v>-114.24</v>
+      </c>
+      <c r="AZ41" s="42" t="n">
+        <v>-114.69</v>
+      </c>
+      <c r="BA41" s="42" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="BB41" s="42" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="BC41" s="42" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="BD41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG41" s="42" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="BH41" s="42" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="BI41" s="42" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="BJ41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="44" t="inlineStr">
+        <is>
+          <t>50308000</t>
+        </is>
+      </c>
+      <c r="BQ41" s="42" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="BR41" s="42" t="n">
+        <v>-112.98</v>
+      </c>
+      <c r="BS41" s="42" t="n">
+        <v>-114.11</v>
+      </c>
+      <c r="BT41" s="42" t="n">
+        <v>-114.95</v>
+      </c>
+      <c r="BU41" s="42" t="n">
+        <v>30.06</v>
+      </c>
+      <c r="BV41" s="42" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="BW41" s="42" t="n">
+        <v>11.48</v>
+      </c>
+      <c r="BX41" s="42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BY41" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BZ41" s="42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CA41" s="42" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="CB41" s="42" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="CC41" s="42" t="n">
+        <v>13.83</v>
+      </c>
+      <c r="CD41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI41" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ41" s="38" t="n"/>
+      <c r="CK41" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL41" s="38" t="inlineStr">
+        <is>
+          <t>凱擘</t>
+        </is>
+      </c>
+      <c r="CM41" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN41" s="46" t="n">
+        <v>-114</v>
+      </c>
+      <c r="CO41" s="46" t="n">
+        <v>-107</v>
+      </c>
+      <c r="CP41" s="46" t="n">
+        <v>-105.47</v>
+      </c>
+      <c r="CQ41" s="46" t="n">
+        <v>-103</v>
+      </c>
+      <c r="CR41" s="46" t="n">
+        <v>-101.5</v>
+      </c>
+      <c r="CS41" s="46" t="n">
+        <v>-15</v>
+      </c>
+      <c r="CT41" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CU41" s="46" t="n">
+        <v>-11.24</v>
+      </c>
+      <c r="CV41" s="46" t="n">
+        <v>-10</v>
+      </c>
+      <c r="CW41" s="46" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="CX41" s="42" t="n">
+        <v>120.546398</v>
+      </c>
+      <c r="CY41" s="42" t="n">
+        <v>24.0179549</v>
+      </c>
+      <c r="CZ41" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA41" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC41" s="31">
+        <f>IF(CP41&lt;-10,CP41,IF(ISERROR(AVERAGE(CN41:CR41)),"",AVERAGE(CN41:CR41)))</f>
+        <v/>
+      </c>
+      <c r="DD41" s="25">
+        <f>IF(AC41&lt;&gt;"",AC41/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE41" s="25">
+        <f>IF(AW41&lt;&gt;"",AW41/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF41" s="25">
+        <f>IF(BQ41&lt;&gt;"",BQ41/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG41" s="13">
+        <f>MAX(DD41,DE41,DF41)</f>
+        <v/>
+      </c>
+      <c r="DH41" s="14">
+        <f>IF(DG41=DD41,W41,IF(DG41=DE41,X41,IF(DG41=DF41,Y41,"")))</f>
+        <v/>
+      </c>
+      <c r="DI41" s="62">
+        <f>VLOOKUP(G41,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ41" s="4">
+        <f>IF(DC41&gt;-10,"",IF(ISERROR(DC41),"",CONCATENATE(INT(DC41/5)*5+5,"~",INT(DC41/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK41" s="4" t="n"/>
+      <c r="DL41" s="5">
+        <f>IF(AND(OR(N41="5G",N41="I5G"),O41="5GNSA"),"5G True User",IF(OR(N41="2G",N41="3G",N41="4G",N41="I4G"),"4G",IF(AND(OR(N41="5G",N41="I5G"),O41&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM41" s="63">
+        <f>COUNTIFS(AD41:AF41,"&gt;-105",AD41:AF41,"&lt;0")+COUNTIFS(AX41:AZ41,"&gt;-105",AX41:AZ41,"&lt;0")+COUNTIFS(BR41:BT41,"&gt;-105",BR41:BT41,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN41" s="11">
+        <f>ROUND(MAX(DD41,DE41,DF41)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO41" s="64">
+        <f>IF(DC41&gt;-10,"",ROUND(DC41/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP41" s="65">
+        <f>IF(R2="作業","障礙",IF(R41="障礙","障礙",IF(R41="抗爭","抗爭",IF(R41="40055重大障礙","40055重大障礙",IF(R41="非TWM問題的障礙","非TWM問題的障礙",IF(U41=35806,"非TWM問題的障礙",IF( OR(AND(AJ41&lt;&gt;"",AJ41&gt;0,AJ41&lt;0.7),       AND(AK41&lt;&gt;"",AK41&gt;0,AK41&lt;0.7),       AND(AL41&lt;&gt;"",AL41&gt;0,AL41&lt;0.7),       AND(AP41&lt;&gt;"",AP41&gt;0,AP41&lt;0.7),       AND(AQ41&lt;&gt;"",AQ41&gt;0,AQ41&lt;0.7),       AND(AR41&lt;&gt;"",AR41&gt;0,AR41&lt;0.7),       AND(AS41&lt;&gt;"",AS41&gt;0,AS41&lt;0.7),       AND(AT41&lt;&gt;"",AT41&gt;0,AT41&lt;0.7),       AND(AU41&lt;&gt;"",AU41&gt;0,AU41&lt;0.7)),"障礙",IF( OR(AND(BD41&lt;&gt;"",BD41&gt;0,BD41&lt;0.7),       AND(BE41&lt;&gt;"",BE41&gt;0,BE41&lt;0.7),       AND(BF41&lt;&gt;"",BF41&gt;0,BF41&lt;0.7),       AND(BJ41&lt;&gt;"",BJ41&gt;0,BJ41&lt;0.7),       AND(BK41&lt;&gt;"",BK41&gt;0,BK41&lt;0.7),       AND(BL41&lt;&gt;"",BL41&gt;0,BL41&lt;0.7),       AND(BM41&lt;&gt;"",BM41&gt;0,BM41&lt;0.7),       AND(BN41&lt;&gt;"",BN41&gt;0,BN41&lt;0.7),       AND(BO41&lt;&gt;"",BO41&gt;0,BO41&lt;0.7)),"障礙",IF( OR(AND(BX41&lt;&gt;"",BX41&gt;0,BX41&lt;0.7),       AND(BY41&lt;&gt;"",BY41&gt;0,BY41&lt;0.7),       AND(BZ41&lt;&gt;"",BZ41&gt;0,BZ41&lt;0.7),       AND(CD41&lt;&gt;"",CD41&gt;0,CD41&lt;0.7),       AND(CE41&lt;&gt;"",CE41&gt;0,CE41&lt;0.7),       AND(CF41&lt;&gt;"",CF41&gt;0,CF41&lt;0.7),       AND(CG41&lt;&gt;"",CG41&gt;0,CG41&lt;0.7),       AND(CH41&lt;&gt;"",CH41&gt;0,CH41&lt;0.7),       AND(CI41&lt;&gt;"",CI41&gt;0,CI41&lt;0.7)),"障礙",IF(OR(CJ41="住抗",CJ41="暫時移除設備"),"抗爭",IF(CJ41&lt;&gt;"","障礙",IF(DM41&gt;2,"干擾",IF(Q41=6,"CC6",IF( OR(AND(DD41&lt;&gt;"",DD41&gt;0.8),AND(DE41&lt;&gt;"",DE41&gt;0.8),AND(DF41&lt;&gt;"",DF41&gt;0.8)),"PRB&gt;80",IF(AND(DC41&gt;-106,DC41&lt;-30),"RSRP優於-106",IF(DC41&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ41" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA41)),"",MID(AA41,SEARCH("PM分析:",AA41)+5,SEARCH("&gt;&gt;檢查",AA41)-SEARCH("PM分析:",AA41)-5))</f>
+        <v/>
+      </c>
+      <c r="DR41" s="28">
+        <f>IF(T41="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T41="因應特別活動調整相關參數導致","TTC",IF(OR(T41="基站障礙問題查測中",T41="基站問題待料中",T41="基站障礙問題已修復",T41="施工作業已恢復",T41="基站抗爭暫時關閉",T41="基站抗爭持續關閉中",T41="基站抗爭已復站",T41="基地台抗爭拆站",T41="基地台群體抗爭",T41="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R41="作業",R41="障礙",R41="抗爭"),"基站障礙",IF(OR(T41="外在不明干擾影響，查測中",T41="干擾問題已排除",T41="外在不明干擾(大規模)影響",T41="干擾(大規模)問題已排除"),"干擾",IF(R41="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0022</t>
+        </is>
+      </c>
+      <c r="B42" s="60" t="n">
+        <v>14113593</v>
+      </c>
+      <c r="C42" s="61" t="n">
+        <v>44896.34629629629</v>
+      </c>
+      <c r="D42" s="47" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E42" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F42" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G42" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H42" s="47" t="inlineStr">
+        <is>
+          <t>北一</t>
+        </is>
+      </c>
+      <c r="I42" s="47" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="J42" s="47" t="inlineStr">
+        <is>
+          <t>新北市汐止區</t>
+        </is>
+      </c>
+      <c r="K42" s="47" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L42" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M42" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N42" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O42" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="P42" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q42" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" s="47" t="n"/>
+      <c r="S42" s="47" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T42" s="47" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U42" s="52" t="n"/>
+      <c r="V42" s="47" t="n"/>
+      <c r="W42" s="47" t="inlineStr">
+        <is>
+          <t>221V0000</t>
+        </is>
+      </c>
+      <c r="X42" s="47" t="inlineStr">
+        <is>
+          <t>221P7000</t>
+        </is>
+      </c>
+      <c r="Y42" s="47" t="inlineStr">
+        <is>
+          <t>221K2000</t>
+        </is>
+      </c>
+      <c r="Z42" s="47" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA42" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 221V0000(23.83),221P7000(19.03),221K2000(20.29),前一天最差PRB%:221V0000(79.91%),221P7000(81.32%),221K2000(79.75%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案3&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：是(2022/11/30 下午 10:00:00 221P7000(81.32))</t>
+        </is>
+      </c>
+      <c r="AB42" s="44" t="inlineStr">
+        <is>
+          <t>221V0000</t>
+        </is>
+      </c>
+      <c r="AC42" s="51" t="n">
+        <v>79.91</v>
+      </c>
+      <c r="AD42" s="51" t="n">
+        <v>-107.37</v>
+      </c>
+      <c r="AE42" s="51" t="n">
+        <v>-107.78</v>
+      </c>
+      <c r="AF42" s="51" t="n">
+        <v>-109.51</v>
+      </c>
+      <c r="AG42" s="51" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="AH42" s="51" t="n">
+        <v>34.01</v>
+      </c>
+      <c r="AI42" s="51" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AJ42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="51" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AL42" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AM42" s="51" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="AN42" s="51" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="AO42" s="51" t="n">
+        <v>36.58</v>
+      </c>
+      <c r="AP42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="44" t="inlineStr">
+        <is>
+          <t>221P7000</t>
+        </is>
+      </c>
+      <c r="AW42" s="51" t="n">
+        <v>81.31999999999999</v>
+      </c>
+      <c r="AX42" s="51" t="n">
+        <v>-113.61</v>
+      </c>
+      <c r="AY42" s="51" t="n">
+        <v>-113.67</v>
+      </c>
+      <c r="AZ42" s="51" t="n">
+        <v>-114.53</v>
+      </c>
+      <c r="BA42" s="51" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="BB42" s="51" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="BC42" s="51" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="BD42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE42" s="51" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="BF42" s="51" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="BG42" s="51" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="BH42" s="51" t="n">
+        <v>23.02</v>
+      </c>
+      <c r="BI42" s="51" t="n">
+        <v>24.88</v>
+      </c>
+      <c r="BJ42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN42" s="51" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BO42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="44" t="inlineStr">
+        <is>
+          <t>221K2000</t>
+        </is>
+      </c>
+      <c r="BQ42" s="51" t="n">
+        <v>79.75</v>
+      </c>
+      <c r="BR42" s="51" t="n">
+        <v>-116.56</v>
+      </c>
+      <c r="BS42" s="51" t="n">
+        <v>-116.42</v>
+      </c>
+      <c r="BT42" s="51" t="n">
+        <v>-116.78</v>
+      </c>
+      <c r="BU42" s="51" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="BV42" s="51" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="BW42" s="51" t="n">
+        <v>28.79</v>
+      </c>
+      <c r="BX42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY42" s="51" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="BZ42" s="51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CA42" s="51" t="n">
+        <v>20.29</v>
+      </c>
+      <c r="CB42" s="51" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CC42" s="51" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CD42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI42" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ42" s="47" t="n"/>
+      <c r="CK42" s="47" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="CL42" s="47" t="inlineStr">
+        <is>
+          <t>台固媒體</t>
+        </is>
+      </c>
+      <c r="CM42" s="53" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN42" s="54" t="n">
+        <v>-124</v>
+      </c>
+      <c r="CO42" s="54" t="n">
+        <v>-110</v>
+      </c>
+      <c r="CP42" s="54" t="n">
+        <v>-103.75</v>
+      </c>
+      <c r="CQ42" s="54" t="n">
+        <v>-95</v>
+      </c>
+      <c r="CR42" s="54" t="n">
+        <v>-78</v>
+      </c>
+      <c r="CS42" s="54" t="n">
+        <v>-20</v>
+      </c>
+      <c r="CT42" s="54" t="n">
+        <v>-15.5</v>
+      </c>
+      <c r="CU42" s="54" t="n">
+        <v>-14.14</v>
+      </c>
+      <c r="CV42" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CW42" s="54" t="n">
+        <v>-9</v>
+      </c>
+      <c r="CX42" s="51" t="n">
+        <v>121.642411</v>
+      </c>
+      <c r="CY42" s="51" t="n">
+        <v>25.0698769</v>
+      </c>
+      <c r="CZ42" s="53" t="inlineStr">
+        <is>
+          <t>基站障礙</t>
+        </is>
+      </c>
+      <c r="DA42" s="53" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC42" s="31">
+        <f>IF(CP42&lt;-10,CP42,IF(ISERROR(AVERAGE(CN42:CR42)),"",AVERAGE(CN42:CR42)))</f>
+        <v/>
+      </c>
+      <c r="DD42" s="25">
+        <f>IF(AC42&lt;&gt;"",AC42/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE42" s="25">
+        <f>IF(AW42&lt;&gt;"",AW42/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF42" s="25">
+        <f>IF(BQ42&lt;&gt;"",BQ42/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG42" s="13">
+        <f>MAX(DD42,DE42,DF42)</f>
+        <v/>
+      </c>
+      <c r="DH42" s="14">
+        <f>IF(DG42=DD42,W42,IF(DG42=DE42,X42,IF(DG42=DF42,Y42,"")))</f>
+        <v/>
+      </c>
+      <c r="DI42" s="62">
+        <f>VLOOKUP(G42,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ42" s="4">
+        <f>IF(DC42&gt;-10,"",IF(ISERROR(DC42),"",CONCATENATE(INT(DC42/5)*5+5,"~",INT(DC42/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK42" s="4" t="n"/>
+      <c r="DL42" s="5">
+        <f>IF(AND(OR(N42="5G",N42="I5G"),O42="5GNSA"),"5G True User",IF(OR(N42="2G",N42="3G",N42="4G",N42="I4G"),"4G",IF(AND(OR(N42="5G",N42="I5G"),O42&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM42" s="63">
+        <f>COUNTIFS(AD42:AF42,"&gt;-105",AD42:AF42,"&lt;0")+COUNTIFS(AX42:AZ42,"&gt;-105",AX42:AZ42,"&lt;0")+COUNTIFS(BR42:BT42,"&gt;-105",BR42:BT42,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN42" s="11">
+        <f>ROUND(MAX(DD42,DE42,DF42)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO42" s="64">
+        <f>IF(DC42&gt;-10,"",ROUND(DC42/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP42" s="65">
+        <f>IF(R2="作業","障礙",IF(R42="障礙","障礙",IF(R42="抗爭","抗爭",IF(R42="40055重大障礙","40055重大障礙",IF(R42="非TWM問題的障礙","非TWM問題的障礙",IF(U42=35806,"非TWM問題的障礙",IF( OR(AND(AJ42&lt;&gt;"",AJ42&gt;0,AJ42&lt;0.7),       AND(AK42&lt;&gt;"",AK42&gt;0,AK42&lt;0.7),       AND(AL42&lt;&gt;"",AL42&gt;0,AL42&lt;0.7),       AND(AP42&lt;&gt;"",AP42&gt;0,AP42&lt;0.7),       AND(AQ42&lt;&gt;"",AQ42&gt;0,AQ42&lt;0.7),       AND(AR42&lt;&gt;"",AR42&gt;0,AR42&lt;0.7),       AND(AS42&lt;&gt;"",AS42&gt;0,AS42&lt;0.7),       AND(AT42&lt;&gt;"",AT42&gt;0,AT42&lt;0.7),       AND(AU42&lt;&gt;"",AU42&gt;0,AU42&lt;0.7)),"障礙",IF( OR(AND(BD42&lt;&gt;"",BD42&gt;0,BD42&lt;0.7),       AND(BE42&lt;&gt;"",BE42&gt;0,BE42&lt;0.7),       AND(BF42&lt;&gt;"",BF42&gt;0,BF42&lt;0.7),       AND(BJ42&lt;&gt;"",BJ42&gt;0,BJ42&lt;0.7),       AND(BK42&lt;&gt;"",BK42&gt;0,BK42&lt;0.7),       AND(BL42&lt;&gt;"",BL42&gt;0,BL42&lt;0.7),       AND(BM42&lt;&gt;"",BM42&gt;0,BM42&lt;0.7),       AND(BN42&lt;&gt;"",BN42&gt;0,BN42&lt;0.7),       AND(BO42&lt;&gt;"",BO42&gt;0,BO42&lt;0.7)),"障礙",IF( OR(AND(BX42&lt;&gt;"",BX42&gt;0,BX42&lt;0.7),       AND(BY42&lt;&gt;"",BY42&gt;0,BY42&lt;0.7),       AND(BZ42&lt;&gt;"",BZ42&gt;0,BZ42&lt;0.7),       AND(CD42&lt;&gt;"",CD42&gt;0,CD42&lt;0.7),       AND(CE42&lt;&gt;"",CE42&gt;0,CE42&lt;0.7),       AND(CF42&lt;&gt;"",CF42&gt;0,CF42&lt;0.7),       AND(CG42&lt;&gt;"",CG42&gt;0,CG42&lt;0.7),       AND(CH42&lt;&gt;"",CH42&gt;0,CH42&lt;0.7),       AND(CI42&lt;&gt;"",CI42&gt;0,CI42&lt;0.7)),"障礙",IF(OR(CJ42="住抗",CJ42="暫時移除設備"),"抗爭",IF(CJ42&lt;&gt;"","障礙",IF(DM42&gt;2,"干擾",IF(Q42=6,"CC6",IF( OR(AND(DD42&lt;&gt;"",DD42&gt;0.8),AND(DE42&lt;&gt;"",DE42&gt;0.8),AND(DF42&lt;&gt;"",DF42&gt;0.8)),"PRB&gt;80",IF(AND(DC42&gt;-106,DC42&lt;-30),"RSRP優於-106",IF(DC42&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ42" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA42)),"",MID(AA42,SEARCH("PM分析:",AA42)+5,SEARCH("&gt;&gt;檢查",AA42)-SEARCH("PM分析:",AA42)-5))</f>
+        <v/>
+      </c>
+      <c r="DR42" s="28">
+        <f>IF(T42="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T42="因應特別活動調整相關參數導致","TTC",IF(OR(T42="基站障礙問題查測中",T42="基站問題待料中",T42="基站障礙問題已修復",T42="施工作業已恢復",T42="基站抗爭暫時關閉",T42="基站抗爭持續關閉中",T42="基站抗爭已復站",T42="基地台抗爭拆站",T42="基地台群體抗爭",T42="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R42="作業",R42="障礙",R42="抗爭"),"基站障礙",IF(OR(T42="外在不明干擾影響，查測中",T42="干擾問題已排除",T42="外在不明干擾(大規模)影響",T42="干擾(大規模)問題已排除"),"干擾",IF(R42="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0023</t>
+        </is>
+      </c>
+      <c r="B43" s="66" t="n">
+        <v>60758027</v>
+      </c>
+      <c r="C43" s="67" t="n">
+        <v>44896.34649305556</v>
+      </c>
+      <c r="D43" s="38" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E43" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F43" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G43" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H43" s="38" t="inlineStr">
+        <is>
+          <t>中區</t>
+        </is>
+      </c>
+      <c r="I43" s="38" t="inlineStr">
+        <is>
+          <t>彰化縣</t>
+        </is>
+      </c>
+      <c r="J43" s="38" t="inlineStr">
+        <is>
+          <t>彰化縣溪湖鎮</t>
+        </is>
+      </c>
+      <c r="K43" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L43" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M43" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N43" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O43" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P43" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q43" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" s="38" t="n"/>
+      <c r="S43" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T43" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U43" s="43" t="n"/>
+      <c r="V43" s="38" t="n"/>
+      <c r="W43" s="38" t="inlineStr">
+        <is>
+          <t>51416000</t>
+        </is>
+      </c>
+      <c r="X43" s="38" t="inlineStr">
+        <is>
+          <t>51488000</t>
+        </is>
+      </c>
+      <c r="Y43" s="38" t="inlineStr">
+        <is>
+          <t>51465000</t>
+        </is>
+      </c>
+      <c r="Z43" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA43" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 51416000(12.83),51488000(26.75),51465000(18.08),前一天最差PRB%:51416000(47.66%),51488000(67.15%),51465000(56.52%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:訊號強度正常&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前3小時內是否有RRC Connection Setup Success Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前0小時內(0表示進件當時)是否有派工情況：否&gt;&gt;檢查HLR-MAX REQUESTED BANDWIDTH是否有DL&lt;226000000且UL&lt;60000000情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(100%)情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(10%～99%)情況：否&gt;&gt;檢查MDT L700 RSRQ是否有符合最差、平均、最佳各區間情況：否 (MIN:-11，平均:-8.17，MAX:-6.5)&gt;&gt;檢查MDT L700 RSRP是否有&lt;-105dBm 情況：否</t>
+        </is>
+      </c>
+      <c r="AB43" s="44" t="inlineStr">
+        <is>
+          <t>51416000</t>
+        </is>
+      </c>
+      <c r="AC43" s="42" t="n">
+        <v>47.66</v>
+      </c>
+      <c r="AD43" s="42" t="n">
+        <v>-112.42</v>
+      </c>
+      <c r="AE43" s="42" t="n">
+        <v>-110.33</v>
+      </c>
+      <c r="AF43" s="42" t="n">
+        <v>-111.85</v>
+      </c>
+      <c r="AG43" s="42" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="AH43" s="42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI43" s="42" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="AJ43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="42" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="AN43" s="42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO43" s="42" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AP43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV43" s="44" t="inlineStr">
+        <is>
+          <t>51488000</t>
+        </is>
+      </c>
+      <c r="AW43" s="42" t="n">
+        <v>67.15000000000001</v>
+      </c>
+      <c r="AX43" s="42" t="n">
+        <v>-114.13</v>
+      </c>
+      <c r="AY43" s="42" t="n">
+        <v>-113.42</v>
+      </c>
+      <c r="AZ43" s="42" t="n">
+        <v>-114.49</v>
+      </c>
+      <c r="BA43" s="42" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="BB43" s="42" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="BC43" s="42" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="BD43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG43" s="42" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="BH43" s="42" t="n">
+        <v>25.29</v>
+      </c>
+      <c r="BI43" s="42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BJ43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="44" t="inlineStr">
+        <is>
+          <t>51465000</t>
+        </is>
+      </c>
+      <c r="BQ43" s="42" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="BR43" s="42" t="n">
+        <v>-114.62</v>
+      </c>
+      <c r="BS43" s="42" t="n">
+        <v>-113.37</v>
+      </c>
+      <c r="BT43" s="42" t="n">
+        <v>-114.27</v>
+      </c>
+      <c r="BU43" s="42" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="BV43" s="42" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="BW43" s="42" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="BX43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA43" s="42" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="CB43" s="42" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="CC43" s="42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="CD43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI43" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ43" s="38" t="n"/>
+      <c r="CK43" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL43" s="38" t="n"/>
+      <c r="CM43" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN43" s="46" t="n">
+        <v>-81</v>
+      </c>
+      <c r="CO43" s="46" t="n">
+        <v>-81</v>
+      </c>
+      <c r="CP43" s="46" t="n">
+        <v>-79.67</v>
+      </c>
+      <c r="CQ43" s="46" t="n">
+        <v>-79</v>
+      </c>
+      <c r="CR43" s="46" t="n">
+        <v>-79</v>
+      </c>
+      <c r="CS43" s="46" t="n">
+        <v>-11</v>
+      </c>
+      <c r="CT43" s="46" t="n">
+        <v>-11</v>
+      </c>
+      <c r="CU43" s="46" t="n">
+        <v>-8.17</v>
+      </c>
+      <c r="CV43" s="46" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="CW43" s="46" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="CX43" s="42" t="n">
+        <v>120.4933624</v>
+      </c>
+      <c r="CY43" s="42" t="n">
+        <v>23.9583265</v>
+      </c>
+      <c r="CZ43" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA43" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC43" s="31">
+        <f>IF(CP43&lt;-10,CP43,IF(ISERROR(AVERAGE(CN43:CR43)),"",AVERAGE(CN43:CR43)))</f>
+        <v/>
+      </c>
+      <c r="DD43" s="25">
+        <f>IF(AC43&lt;&gt;"",AC43/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE43" s="25">
+        <f>IF(AW43&lt;&gt;"",AW43/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF43" s="25">
+        <f>IF(BQ43&lt;&gt;"",BQ43/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG43" s="13">
+        <f>MAX(DD43,DE43,DF43)</f>
+        <v/>
+      </c>
+      <c r="DH43" s="14">
+        <f>IF(DG43=DD43,W43,IF(DG43=DE43,X43,IF(DG43=DF43,Y43,"")))</f>
+        <v/>
+      </c>
+      <c r="DI43" s="62">
+        <f>VLOOKUP(G43,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ43" s="4">
+        <f>IF(DC43&gt;-10,"",IF(ISERROR(DC43),"",CONCATENATE(INT(DC43/5)*5+5,"~",INT(DC43/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK43" s="4" t="n"/>
+      <c r="DL43" s="5">
+        <f>IF(AND(OR(N43="5G",N43="I5G"),O43="5GNSA"),"5G True User",IF(OR(N43="2G",N43="3G",N43="4G",N43="I4G"),"4G",IF(AND(OR(N43="5G",N43="I5G"),O43&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM43" s="63">
+        <f>COUNTIFS(AD43:AF43,"&gt;-105",AD43:AF43,"&lt;0")+COUNTIFS(AX43:AZ43,"&gt;-105",AX43:AZ43,"&lt;0")+COUNTIFS(BR43:BT43,"&gt;-105",BR43:BT43,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN43" s="11">
+        <f>ROUND(MAX(DD43,DE43,DF43)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO43" s="64">
+        <f>IF(DC43&gt;-10,"",ROUND(DC43/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP43" s="65">
+        <f>IF(R2="作業","障礙",IF(R43="障礙","障礙",IF(R43="抗爭","抗爭",IF(R43="40055重大障礙","40055重大障礙",IF(R43="非TWM問題的障礙","非TWM問題的障礙",IF(U43=35806,"非TWM問題的障礙",IF( OR(AND(AJ43&lt;&gt;"",AJ43&gt;0,AJ43&lt;0.7),       AND(AK43&lt;&gt;"",AK43&gt;0,AK43&lt;0.7),       AND(AL43&lt;&gt;"",AL43&gt;0,AL43&lt;0.7),       AND(AP43&lt;&gt;"",AP43&gt;0,AP43&lt;0.7),       AND(AQ43&lt;&gt;"",AQ43&gt;0,AQ43&lt;0.7),       AND(AR43&lt;&gt;"",AR43&gt;0,AR43&lt;0.7),       AND(AS43&lt;&gt;"",AS43&gt;0,AS43&lt;0.7),       AND(AT43&lt;&gt;"",AT43&gt;0,AT43&lt;0.7),       AND(AU43&lt;&gt;"",AU43&gt;0,AU43&lt;0.7)),"障礙",IF( OR(AND(BD43&lt;&gt;"",BD43&gt;0,BD43&lt;0.7),       AND(BE43&lt;&gt;"",BE43&gt;0,BE43&lt;0.7),       AND(BF43&lt;&gt;"",BF43&gt;0,BF43&lt;0.7),       AND(BJ43&lt;&gt;"",BJ43&gt;0,BJ43&lt;0.7),       AND(BK43&lt;&gt;"",BK43&gt;0,BK43&lt;0.7),       AND(BL43&lt;&gt;"",BL43&gt;0,BL43&lt;0.7),       AND(BM43&lt;&gt;"",BM43&gt;0,BM43&lt;0.7),       AND(BN43&lt;&gt;"",BN43&gt;0,BN43&lt;0.7),       AND(BO43&lt;&gt;"",BO43&gt;0,BO43&lt;0.7)),"障礙",IF( OR(AND(BX43&lt;&gt;"",BX43&gt;0,BX43&lt;0.7),       AND(BY43&lt;&gt;"",BY43&gt;0,BY43&lt;0.7),       AND(BZ43&lt;&gt;"",BZ43&gt;0,BZ43&lt;0.7),       AND(CD43&lt;&gt;"",CD43&gt;0,CD43&lt;0.7),       AND(CE43&lt;&gt;"",CE43&gt;0,CE43&lt;0.7),       AND(CF43&lt;&gt;"",CF43&gt;0,CF43&lt;0.7),       AND(CG43&lt;&gt;"",CG43&gt;0,CG43&lt;0.7),       AND(CH43&lt;&gt;"",CH43&gt;0,CH43&lt;0.7),       AND(CI43&lt;&gt;"",CI43&gt;0,CI43&lt;0.7)),"障礙",IF(OR(CJ43="住抗",CJ43="暫時移除設備"),"抗爭",IF(CJ43&lt;&gt;"","障礙",IF(DM43&gt;2,"干擾",IF(Q43=6,"CC6",IF( OR(AND(DD43&lt;&gt;"",DD43&gt;0.8),AND(DE43&lt;&gt;"",DE43&gt;0.8),AND(DF43&lt;&gt;"",DF43&gt;0.8)),"PRB&gt;80",IF(AND(DC43&gt;-106,DC43&lt;-30),"RSRP優於-106",IF(DC43&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ43" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA43)),"",MID(AA43,SEARCH("PM分析:",AA43)+5,SEARCH("&gt;&gt;檢查",AA43)-SEARCH("PM分析:",AA43)-5))</f>
+        <v/>
+      </c>
+      <c r="DR43" s="28">
+        <f>IF(T43="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T43="因應特別活動調整相關參數導致","TTC",IF(OR(T43="基站障礙問題查測中",T43="基站問題待料中",T43="基站障礙問題已修復",T43="施工作業已恢復",T43="基站抗爭暫時關閉",T43="基站抗爭持續關閉中",T43="基站抗爭已復站",T43="基地台抗爭拆站",T43="基地台群體抗爭",T43="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R43="作業",R43="障礙",R43="抗爭"),"基站障礙",IF(OR(T43="外在不明干擾影響，查測中",T43="干擾問題已排除",T43="外在不明干擾(大規模)影響",T43="干擾(大規模)問題已排除"),"干擾",IF(R43="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0024</t>
+        </is>
+      </c>
+      <c r="B44" s="60" t="n">
+        <v>21119352</v>
+      </c>
+      <c r="C44" s="61" t="n">
+        <v>44896.35034722222</v>
+      </c>
+      <c r="D44" s="47" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E44" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F44" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G44" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H44" s="47" t="inlineStr">
+        <is>
+          <t>北二</t>
+        </is>
+      </c>
+      <c r="I44" s="47" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="J44" s="47" t="inlineStr">
+        <is>
+          <t>新北市鶯歌區</t>
+        </is>
+      </c>
+      <c r="K44" s="47" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L44" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M44" s="47" t="inlineStr">
+        <is>
+          <t>預付卡4G</t>
+        </is>
+      </c>
+      <c r="N44" s="47" t="inlineStr">
+        <is>
+          <t>預付卡4G</t>
+        </is>
+      </c>
+      <c r="O44" s="47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P44" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q44" s="51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" s="47" t="n"/>
+      <c r="S44" s="47" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T44" s="47" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U44" s="52" t="n"/>
+      <c r="V44" s="47" t="n"/>
+      <c r="W44" s="47" t="inlineStr">
+        <is>
+          <t>23911000</t>
+        </is>
+      </c>
+      <c r="X44" s="47" t="inlineStr">
+        <is>
+          <t>23928000</t>
+        </is>
+      </c>
+      <c r="Y44" s="47" t="inlineStr">
+        <is>
+          <t>23933000</t>
+        </is>
+      </c>
+      <c r="Z44" s="47" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA44" s="52" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:預付卡用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 23911000(14.18),23928000(12.38),23933000(13.21),前一天最差PRB%:23911000(56.84%),23928000(39.80%),23933000(42.04%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 07:00:00 23911000(75%))</t>
+        </is>
+      </c>
+      <c r="AB44" s="44" t="inlineStr">
+        <is>
+          <t>23911000</t>
+        </is>
+      </c>
+      <c r="AC44" s="51" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="AD44" s="51" t="n">
+        <v>-112.99</v>
+      </c>
+      <c r="AE44" s="51" t="n">
+        <v>-112.11</v>
+      </c>
+      <c r="AF44" s="51" t="n">
+        <v>-113.6</v>
+      </c>
+      <c r="AG44" s="51" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="AH44" s="51" t="n">
+        <v>26.78</v>
+      </c>
+      <c r="AI44" s="51" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="AJ44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="51" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AL44" s="51" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AM44" s="51" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="AN44" s="51" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="AO44" s="51" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="AP44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="44" t="inlineStr">
+        <is>
+          <t>23928000</t>
+        </is>
+      </c>
+      <c r="AW44" s="51" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="AX44" s="51" t="n">
+        <v>-112.66</v>
+      </c>
+      <c r="AY44" s="51" t="n">
+        <v>-112.47</v>
+      </c>
+      <c r="AZ44" s="51" t="n">
+        <v>-113.84</v>
+      </c>
+      <c r="BA44" s="51" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="BB44" s="51" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="BC44" s="51" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="BD44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG44" s="51" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="BH44" s="51" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BI44" s="51" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="BJ44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="44" t="inlineStr">
+        <is>
+          <t>23933000</t>
+        </is>
+      </c>
+      <c r="BQ44" s="51" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="BR44" s="51" t="n">
+        <v>-109.3</v>
+      </c>
+      <c r="BS44" s="51" t="n">
+        <v>-109.25</v>
+      </c>
+      <c r="BT44" s="51" t="n">
+        <v>-110.63</v>
+      </c>
+      <c r="BU44" s="51" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="BV44" s="51" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="BW44" s="51" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="BX44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA44" s="51" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="CB44" s="51" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="CC44" s="51" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="CD44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI44" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ44" s="47" t="n"/>
+      <c r="CK44" s="47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="CL44" s="47" t="n"/>
+      <c r="CM44" s="53" t="inlineStr">
+        <is>
+          <t>官網WEB拋轉</t>
+        </is>
+      </c>
+      <c r="CN44" s="54" t="n">
+        <v>-77</v>
+      </c>
+      <c r="CO44" s="54" t="n">
+        <v>-77</v>
+      </c>
+      <c r="CP44" s="54" t="n">
+        <v>-77</v>
+      </c>
+      <c r="CQ44" s="54" t="n">
+        <v>-77</v>
+      </c>
+      <c r="CR44" s="54" t="n">
+        <v>-77</v>
+      </c>
+      <c r="CS44" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CT44" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CU44" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CV44" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CW44" s="54" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CX44" s="51" t="n">
+        <v>121.348144</v>
+      </c>
+      <c r="CY44" s="51" t="n">
+        <v>24.946605</v>
+      </c>
+      <c r="CZ44" s="53" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA44" s="53" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC44" s="31">
+        <f>IF(CP44&lt;-10,CP44,IF(ISERROR(AVERAGE(CN44:CR44)),"",AVERAGE(CN44:CR44)))</f>
+        <v/>
+      </c>
+      <c r="DD44" s="25">
+        <f>IF(AC44&lt;&gt;"",AC44/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE44" s="25">
+        <f>IF(AW44&lt;&gt;"",AW44/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF44" s="25">
+        <f>IF(BQ44&lt;&gt;"",BQ44/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG44" s="13">
+        <f>MAX(DD44,DE44,DF44)</f>
+        <v/>
+      </c>
+      <c r="DH44" s="14">
+        <f>IF(DG44=DD44,W44,IF(DG44=DE44,X44,IF(DG44=DF44,Y44,"")))</f>
+        <v/>
+      </c>
+      <c r="DI44" s="62">
+        <f>VLOOKUP(G44,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ44" s="4">
+        <f>IF(DC44&gt;-10,"",IF(ISERROR(DC44),"",CONCATENATE(INT(DC44/5)*5+5,"~",INT(DC44/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK44" s="4" t="n"/>
+      <c r="DL44" s="5">
+        <f>IF(AND(OR(N44="5G",N44="I5G"),O44="5GNSA"),"5G True User",IF(OR(N44="2G",N44="3G",N44="4G",N44="I4G"),"4G",IF(AND(OR(N44="5G",N44="I5G"),O44&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM44" s="63">
+        <f>COUNTIFS(AD44:AF44,"&gt;-105",AD44:AF44,"&lt;0")+COUNTIFS(AX44:AZ44,"&gt;-105",AX44:AZ44,"&lt;0")+COUNTIFS(BR44:BT44,"&gt;-105",BR44:BT44,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN44" s="11">
+        <f>ROUND(MAX(DD44,DE44,DF44)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO44" s="64">
+        <f>IF(DC44&gt;-10,"",ROUND(DC44/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP44" s="65">
+        <f>IF(R2="作業","障礙",IF(R44="障礙","障礙",IF(R44="抗爭","抗爭",IF(R44="40055重大障礙","40055重大障礙",IF(R44="非TWM問題的障礙","非TWM問題的障礙",IF(U44=35806,"非TWM問題的障礙",IF( OR(AND(AJ44&lt;&gt;"",AJ44&gt;0,AJ44&lt;0.7),       AND(AK44&lt;&gt;"",AK44&gt;0,AK44&lt;0.7),       AND(AL44&lt;&gt;"",AL44&gt;0,AL44&lt;0.7),       AND(AP44&lt;&gt;"",AP44&gt;0,AP44&lt;0.7),       AND(AQ44&lt;&gt;"",AQ44&gt;0,AQ44&lt;0.7),       AND(AR44&lt;&gt;"",AR44&gt;0,AR44&lt;0.7),       AND(AS44&lt;&gt;"",AS44&gt;0,AS44&lt;0.7),       AND(AT44&lt;&gt;"",AT44&gt;0,AT44&lt;0.7),       AND(AU44&lt;&gt;"",AU44&gt;0,AU44&lt;0.7)),"障礙",IF( OR(AND(BD44&lt;&gt;"",BD44&gt;0,BD44&lt;0.7),       AND(BE44&lt;&gt;"",BE44&gt;0,BE44&lt;0.7),       AND(BF44&lt;&gt;"",BF44&gt;0,BF44&lt;0.7),       AND(BJ44&lt;&gt;"",BJ44&gt;0,BJ44&lt;0.7),       AND(BK44&lt;&gt;"",BK44&gt;0,BK44&lt;0.7),       AND(BL44&lt;&gt;"",BL44&gt;0,BL44&lt;0.7),       AND(BM44&lt;&gt;"",BM44&gt;0,BM44&lt;0.7),       AND(BN44&lt;&gt;"",BN44&gt;0,BN44&lt;0.7),       AND(BO44&lt;&gt;"",BO44&gt;0,BO44&lt;0.7)),"障礙",IF( OR(AND(BX44&lt;&gt;"",BX44&gt;0,BX44&lt;0.7),       AND(BY44&lt;&gt;"",BY44&gt;0,BY44&lt;0.7),       AND(BZ44&lt;&gt;"",BZ44&gt;0,BZ44&lt;0.7),       AND(CD44&lt;&gt;"",CD44&gt;0,CD44&lt;0.7),       AND(CE44&lt;&gt;"",CE44&gt;0,CE44&lt;0.7),       AND(CF44&lt;&gt;"",CF44&gt;0,CF44&lt;0.7),       AND(CG44&lt;&gt;"",CG44&gt;0,CG44&lt;0.7),       AND(CH44&lt;&gt;"",CH44&gt;0,CH44&lt;0.7),       AND(CI44&lt;&gt;"",CI44&gt;0,CI44&lt;0.7)),"障礙",IF(OR(CJ44="住抗",CJ44="暫時移除設備"),"抗爭",IF(CJ44&lt;&gt;"","障礙",IF(DM44&gt;2,"干擾",IF(Q44=6,"CC6",IF( OR(AND(DD44&lt;&gt;"",DD44&gt;0.8),AND(DE44&lt;&gt;"",DE44&gt;0.8),AND(DF44&lt;&gt;"",DF44&gt;0.8)),"PRB&gt;80",IF(AND(DC44&gt;-106,DC44&lt;-30),"RSRP優於-106",IF(DC44&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ44" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA44)),"",MID(AA44,SEARCH("PM分析:",AA44)+5,SEARCH("&gt;&gt;檢查",AA44)-SEARCH("PM分析:",AA44)-5))</f>
+        <v/>
+      </c>
+      <c r="DR44" s="28">
+        <f>IF(T44="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T44="因應特別活動調整相關參數導致","TTC",IF(OR(T44="基站障礙問題查測中",T44="基站問題待料中",T44="基站障礙問題已修復",T44="施工作業已恢復",T44="基站抗爭暫時關閉",T44="基站抗爭持續關閉中",T44="基站抗爭已復站",T44="基地台抗爭拆站",T44="基地台群體抗爭",T44="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R44="作業",R44="障礙",R44="抗爭"),"基站障礙",IF(OR(T44="外在不明干擾影響，查測中",T44="干擾問題已排除",T44="外在不明干擾(大規模)影響",T44="干擾(大規模)問題已排除"),"干擾",IF(R44="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0025</t>
+        </is>
+      </c>
+      <c r="B45" s="66" t="n">
+        <v>5142800</v>
+      </c>
+      <c r="C45" s="67" t="n">
+        <v>44896.35609953704</v>
+      </c>
+      <c r="D45" s="38" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E45" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F45" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G45" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H45" s="38" t="inlineStr">
+        <is>
+          <t>北二</t>
+        </is>
+      </c>
+      <c r="I45" s="38" t="inlineStr">
+        <is>
+          <t>桃園市</t>
+        </is>
+      </c>
+      <c r="J45" s="38" t="inlineStr">
+        <is>
+          <t>桃園市龍潭區</t>
+        </is>
+      </c>
+      <c r="K45" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L45" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M45" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N45" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O45" s="38" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="P45" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q45" s="42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="38" t="n"/>
+      <c r="S45" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T45" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U45" s="43" t="n"/>
+      <c r="V45" s="38" t="n"/>
+      <c r="W45" s="38" t="inlineStr">
+        <is>
+          <t>32579000</t>
+        </is>
+      </c>
+      <c r="X45" s="38" t="inlineStr">
+        <is>
+          <t>325B7000</t>
+        </is>
+      </c>
+      <c r="Y45" s="38" t="inlineStr">
+        <is>
+          <t>32563000</t>
+        </is>
+      </c>
+      <c r="Z45" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA45" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:無,干擾值大於-110dbm:,前一小時UE數: 32579000(17.21),325B7000(20.33),32563000(),前一天最差PRB%:32579000(49.29%),325B7000(60.98%),32563000(%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:訊號強度正常&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：無資訊&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前3小時內是否有RRC Connection Setup Success Ratio(%)&lt;90%情況：否&gt;&gt;檢查基站前0小時內(0表示進件當時)是否有派工情況：否&gt;&gt;檢查HLR-MAX REQUESTED BANDWIDTH是否有DL&lt;226000000且UL&lt;60000000情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(100%)情況：否&gt;&gt;檢查CDR過去24小時用到3G的比例是否為(10%～99%)情況：否&gt;&gt;檢查MDT L700 RSRQ是否有符合最差、平均、最佳各區間情況：否 (MIN:-14，平均:-11.79，MAX:-6.5)&gt;&gt;檢查MDT L700 RSRP是否有&lt;-105dBm 情況：否</t>
+        </is>
+      </c>
+      <c r="AB45" s="44" t="inlineStr">
+        <is>
+          <t>32579000</t>
+        </is>
+      </c>
+      <c r="AC45" s="42" t="n">
+        <v>49.29</v>
+      </c>
+      <c r="AD45" s="42" t="n">
+        <v>-114.47</v>
+      </c>
+      <c r="AE45" s="42" t="n">
+        <v>-114.1</v>
+      </c>
+      <c r="AF45" s="42" t="n">
+        <v>-114.92</v>
+      </c>
+      <c r="AG45" s="42" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="AH45" s="42" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="AI45" s="42" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AJ45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="42" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="AN45" s="42" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="AO45" s="42" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="AP45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="44" t="inlineStr">
+        <is>
+          <t>325B7000</t>
+        </is>
+      </c>
+      <c r="AW45" s="42" t="n">
+        <v>60.98</v>
+      </c>
+      <c r="AX45" s="42" t="n">
+        <v>-113.35</v>
+      </c>
+      <c r="AY45" s="42" t="n">
+        <v>-113.33</v>
+      </c>
+      <c r="AZ45" s="42" t="n">
+        <v>-114.42</v>
+      </c>
+      <c r="BA45" s="42" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="BB45" s="42" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="BC45" s="42" t="n">
+        <v>21.48</v>
+      </c>
+      <c r="BD45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="42" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="BH45" s="42" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="BI45" s="42" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="BJ45" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BK45" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BL45" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BM45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO45" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP45" s="44" t="inlineStr">
+        <is>
+          <t>32563000</t>
+        </is>
+      </c>
+      <c r="BQ45" s="42" t="n"/>
+      <c r="BR45" s="42" t="n"/>
+      <c r="BS45" s="42" t="n"/>
+      <c r="BT45" s="42" t="n"/>
+      <c r="BU45" s="42" t="n"/>
+      <c r="BV45" s="42" t="n"/>
+      <c r="BW45" s="42" t="n"/>
+      <c r="BX45" s="42" t="n"/>
+      <c r="BY45" s="42" t="n"/>
+      <c r="BZ45" s="42" t="n"/>
+      <c r="CA45" s="42" t="n"/>
+      <c r="CB45" s="42" t="n"/>
+      <c r="CC45" s="42" t="n"/>
+      <c r="CD45" s="42" t="n"/>
+      <c r="CE45" s="42" t="n"/>
+      <c r="CF45" s="42" t="n"/>
+      <c r="CG45" s="42" t="n"/>
+      <c r="CH45" s="42" t="n"/>
+      <c r="CI45" s="42" t="n"/>
+      <c r="CJ45" s="38" t="n"/>
+      <c r="CK45" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL45" s="38" t="inlineStr">
+        <is>
+          <t>台灣寬頻</t>
+        </is>
+      </c>
+      <c r="CM45" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN45" s="46" t="n">
+        <v>-107</v>
+      </c>
+      <c r="CO45" s="46" t="n">
+        <v>-99</v>
+      </c>
+      <c r="CP45" s="46" t="n">
+        <v>-94.72</v>
+      </c>
+      <c r="CQ45" s="46" t="n">
+        <v>-90</v>
+      </c>
+      <c r="CR45" s="46" t="n">
+        <v>-87</v>
+      </c>
+      <c r="CS45" s="46" t="n">
+        <v>-14</v>
+      </c>
+      <c r="CT45" s="46" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="CU45" s="46" t="n">
+        <v>-11.79</v>
+      </c>
+      <c r="CV45" s="46" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="CW45" s="46" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="CX45" s="42" t="n">
+        <v>121.2138938</v>
+      </c>
+      <c r="CY45" s="42" t="n">
+        <v>24.8732256</v>
+      </c>
+      <c r="CZ45" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA45" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC45" s="31">
+        <f>IF(CP45&lt;-10,CP45,IF(ISERROR(AVERAGE(CN45:CR45)),"",AVERAGE(CN45:CR45)))</f>
+        <v/>
+      </c>
+      <c r="DD45" s="25">
+        <f>IF(AC45&lt;&gt;"",AC45/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE45" s="25">
+        <f>IF(AW45&lt;&gt;"",AW45/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF45" s="25">
+        <f>IF(BQ45&lt;&gt;"",BQ45/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG45" s="13">
+        <f>MAX(DD45,DE45,DF45)</f>
+        <v/>
+      </c>
+      <c r="DH45" s="14">
+        <f>IF(DG45=DD45,W45,IF(DG45=DE45,X45,IF(DG45=DF45,Y45,"")))</f>
+        <v/>
+      </c>
+      <c r="DI45" s="62">
+        <f>VLOOKUP(G45,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ45" s="4">
+        <f>IF(DC45&gt;-10,"",IF(ISERROR(DC45),"",CONCATENATE(INT(DC45/5)*5+5,"~",INT(DC45/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK45" s="4" t="n"/>
+      <c r="DL45" s="5">
+        <f>IF(AND(OR(N45="5G",N45="I5G"),O45="5GNSA"),"5G True User",IF(OR(N45="2G",N45="3G",N45="4G",N45="I4G"),"4G",IF(AND(OR(N45="5G",N45="I5G"),O45&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM45" s="63">
+        <f>COUNTIFS(AD45:AF45,"&gt;-105",AD45:AF45,"&lt;0")+COUNTIFS(AX45:AZ45,"&gt;-105",AX45:AZ45,"&lt;0")+COUNTIFS(BR45:BT45,"&gt;-105",BR45:BT45,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN45" s="11">
+        <f>ROUND(MAX(DD45,DE45,DF45)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO45" s="64">
+        <f>IF(DC45&gt;-10,"",ROUND(DC45/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP45" s="65">
+        <f>IF(R2="作業","障礙",IF(R45="障礙","障礙",IF(R45="抗爭","抗爭",IF(R45="40055重大障礙","40055重大障礙",IF(R45="非TWM問題的障礙","非TWM問題的障礙",IF(U45=35806,"非TWM問題的障礙",IF( OR(AND(AJ45&lt;&gt;"",AJ45&gt;0,AJ45&lt;0.7),       AND(AK45&lt;&gt;"",AK45&gt;0,AK45&lt;0.7),       AND(AL45&lt;&gt;"",AL45&gt;0,AL45&lt;0.7),       AND(AP45&lt;&gt;"",AP45&gt;0,AP45&lt;0.7),       AND(AQ45&lt;&gt;"",AQ45&gt;0,AQ45&lt;0.7),       AND(AR45&lt;&gt;"",AR45&gt;0,AR45&lt;0.7),       AND(AS45&lt;&gt;"",AS45&gt;0,AS45&lt;0.7),       AND(AT45&lt;&gt;"",AT45&gt;0,AT45&lt;0.7),       AND(AU45&lt;&gt;"",AU45&gt;0,AU45&lt;0.7)),"障礙",IF( OR(AND(BD45&lt;&gt;"",BD45&gt;0,BD45&lt;0.7),       AND(BE45&lt;&gt;"",BE45&gt;0,BE45&lt;0.7),       AND(BF45&lt;&gt;"",BF45&gt;0,BF45&lt;0.7),       AND(BJ45&lt;&gt;"",BJ45&gt;0,BJ45&lt;0.7),       AND(BK45&lt;&gt;"",BK45&gt;0,BK45&lt;0.7),       AND(BL45&lt;&gt;"",BL45&gt;0,BL45&lt;0.7),       AND(BM45&lt;&gt;"",BM45&gt;0,BM45&lt;0.7),       AND(BN45&lt;&gt;"",BN45&gt;0,BN45&lt;0.7),       AND(BO45&lt;&gt;"",BO45&gt;0,BO45&lt;0.7)),"障礙",IF( OR(AND(BX45&lt;&gt;"",BX45&gt;0,BX45&lt;0.7),       AND(BY45&lt;&gt;"",BY45&gt;0,BY45&lt;0.7),       AND(BZ45&lt;&gt;"",BZ45&gt;0,BZ45&lt;0.7),       AND(CD45&lt;&gt;"",CD45&gt;0,CD45&lt;0.7),       AND(CE45&lt;&gt;"",CE45&gt;0,CE45&lt;0.7),       AND(CF45&lt;&gt;"",CF45&gt;0,CF45&lt;0.7),       AND(CG45&lt;&gt;"",CG45&gt;0,CG45&lt;0.7),       AND(CH45&lt;&gt;"",CH45&gt;0,CH45&lt;0.7),       AND(CI45&lt;&gt;"",CI45&gt;0,CI45&lt;0.7)),"障礙",IF(OR(CJ45="住抗",CJ45="暫時移除設備"),"抗爭",IF(CJ45&lt;&gt;"","障礙",IF(DM45&gt;2,"干擾",IF(Q45=6,"CC6",IF( OR(AND(DD45&lt;&gt;"",DD45&gt;0.8),AND(DE45&lt;&gt;"",DE45&gt;0.8),AND(DF45&lt;&gt;"",DF45&gt;0.8)),"PRB&gt;80",IF(AND(DC45&gt;-106,DC45&lt;-30),"RSRP優於-106",IF(DC45&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ45" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA45)),"",MID(AA45,SEARCH("PM分析:",AA45)+5,SEARCH("&gt;&gt;檢查",AA45)-SEARCH("PM分析:",AA45)-5))</f>
+        <v/>
+      </c>
+      <c r="DR45" s="28">
+        <f>IF(T45="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T45="因應特別活動調整相關參數導致","TTC",IF(OR(T45="基站障礙問題查測中",T45="基站問題待料中",T45="基站障礙問題已修復",T45="施工作業已恢復",T45="基站抗爭暫時關閉",T45="基站抗爭持續關閉中",T45="基站抗爭已復站",T45="基地台抗爭拆站",T45="基地台群體抗爭",T45="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R45="作業",R45="障礙",R45="抗爭"),"基站障礙",IF(OR(T45="外在不明干擾影響，查測中",T45="干擾問題已排除",T45="外在不明干擾(大規模)影響",T45="干擾(大規模)問題已排除"),"干擾",IF(R45="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="47" t="inlineStr">
+        <is>
+          <t>2022-12-01-0026</t>
+        </is>
+      </c>
+      <c r="B46" s="60" t="n">
+        <v>52880969</v>
+      </c>
+      <c r="C46" s="61" t="n">
+        <v>44896.36180555556</v>
+      </c>
+      <c r="D46" s="47" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="E46" s="47" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F46" s="47" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G46" s="50" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H46" s="47" t="inlineStr">
+        <is>
+          <t>北一</t>
+        </is>
+      </c>
+      <c r="I46" s="47" t="inlineStr">
+        <is>
+          <t>新北市</t>
+        </is>
+      </c>
+      <c r="J46" s="47" t="inlineStr">
+        <is>
+          <t>新北市三芝區</t>
+        </is>
+      </c>
+      <c r="K46" s="47" t="inlineStr">
+        <is>
+          <t>CSS</t>
+        </is>
+      </c>
+      <c r="L46" s="47" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M46" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="N46" s="47" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="O46" s="47" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P46" s="47" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q46" s="51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" s="47" t="n"/>
+      <c r="S46" s="47" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T46" s="47" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U46" s="52" t="n"/>
+      <c r="V46" s="47" t="n"/>
+      <c r="W46" s="47" t="inlineStr">
+        <is>
+          <t>25252000</t>
+        </is>
+      </c>
+      <c r="X46" s="47" t="inlineStr">
+        <is>
+          <t>25207000</t>
+        </is>
+      </c>
+      <c r="Y46" s="47" t="inlineStr">
+        <is>
+          <t>25213000</t>
+        </is>
+      </c>
+      <c r="Z46" s="47" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA46" s="52" t="inlineStr">
+        <is>
+          <t>PM分析:</t>
+        </is>
+      </c>
+      <c r="AB46" s="44" t="inlineStr">
+        <is>
+          <t>25252000</t>
+        </is>
+      </c>
+      <c r="AC46" s="51" t="n"/>
+      <c r="AD46" s="51" t="n"/>
+      <c r="AE46" s="51" t="n"/>
+      <c r="AF46" s="51" t="n"/>
+      <c r="AG46" s="51" t="n"/>
+      <c r="AH46" s="51" t="n"/>
+      <c r="AI46" s="51" t="n"/>
+      <c r="AJ46" s="51" t="n"/>
+      <c r="AK46" s="51" t="n"/>
+      <c r="AL46" s="51" t="n"/>
+      <c r="AM46" s="51" t="n"/>
+      <c r="AN46" s="51" t="n"/>
+      <c r="AO46" s="51" t="n"/>
+      <c r="AP46" s="51" t="n"/>
+      <c r="AQ46" s="51" t="n"/>
+      <c r="AR46" s="51" t="n"/>
+      <c r="AS46" s="51" t="n"/>
+      <c r="AT46" s="51" t="n"/>
+      <c r="AU46" s="51" t="n"/>
+      <c r="AV46" s="44" t="inlineStr">
+        <is>
+          <t>25207000</t>
+        </is>
+      </c>
+      <c r="AW46" s="51" t="n"/>
+      <c r="AX46" s="51" t="n">
+        <v>-115.05</v>
+      </c>
+      <c r="AY46" s="51" t="n">
+        <v>-114.98</v>
+      </c>
+      <c r="AZ46" s="51" t="n">
+        <v>-115.69</v>
+      </c>
+      <c r="BA46" s="51" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="BB46" s="51" t="n">
+        <v>32.63</v>
+      </c>
+      <c r="BC46" s="51" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="BD46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE46" s="51" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BF46" s="51" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="BG46" s="51" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="BH46" s="51" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="BI46" s="51" t="n">
+        <v>18.36</v>
+      </c>
+      <c r="BJ46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO46" s="51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP46" s="44" t="inlineStr">
+        <is>
+          <t>25213000</t>
+        </is>
+      </c>
+      <c r="BQ46" s="51" t="n"/>
+      <c r="BR46" s="51" t="n"/>
+      <c r="BS46" s="51" t="n"/>
+      <c r="BT46" s="51" t="n"/>
+      <c r="BU46" s="51" t="n"/>
+      <c r="BV46" s="51" t="n"/>
+      <c r="BW46" s="51" t="n"/>
+      <c r="BX46" s="51" t="n"/>
+      <c r="BY46" s="51" t="n"/>
+      <c r="BZ46" s="51" t="n"/>
+      <c r="CA46" s="51" t="n"/>
+      <c r="CB46" s="51" t="n"/>
+      <c r="CC46" s="51" t="n"/>
+      <c r="CD46" s="51" t="n"/>
+      <c r="CE46" s="51" t="n"/>
+      <c r="CF46" s="51" t="n"/>
+      <c r="CG46" s="51" t="n"/>
+      <c r="CH46" s="51" t="n"/>
+      <c r="CI46" s="51" t="n"/>
+      <c r="CJ46" s="47" t="n"/>
+      <c r="CK46" s="47" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL46" s="47" t="inlineStr">
+        <is>
+          <t>台固媒體</t>
+        </is>
+      </c>
+      <c r="CM46" s="53" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN46" s="54" t="n">
+        <v>-84</v>
+      </c>
+      <c r="CO46" s="54" t="n">
+        <v>-84</v>
+      </c>
+      <c r="CP46" s="54" t="n">
+        <v>-84</v>
+      </c>
+      <c r="CQ46" s="54" t="n">
+        <v>-84</v>
+      </c>
+      <c r="CR46" s="54" t="n">
+        <v>-84</v>
+      </c>
+      <c r="CS46" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CT46" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CU46" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CV46" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CW46" s="54" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CX46" s="51" t="n">
+        <v>121.504897</v>
+      </c>
+      <c r="CY46" s="51" t="n">
+        <v>25.2572076</v>
+      </c>
+      <c r="CZ46" s="53" t="inlineStr">
+        <is>
+          <t>基站障礙</t>
+        </is>
+      </c>
+      <c r="DA46" s="53" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC46" s="31">
+        <f>IF(CP46&lt;-10,CP46,IF(ISERROR(AVERAGE(CN46:CR46)),"",AVERAGE(CN46:CR46)))</f>
+        <v/>
+      </c>
+      <c r="DD46" s="25">
+        <f>IF(AC46&lt;&gt;"",AC46/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE46" s="25">
+        <f>IF(AW46&lt;&gt;"",AW46/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF46" s="25">
+        <f>IF(BQ46&lt;&gt;"",BQ46/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG46" s="13">
+        <f>MAX(DD46,DE46,DF46)</f>
+        <v/>
+      </c>
+      <c r="DH46" s="14">
+        <f>IF(DG46=DD46,W46,IF(DG46=DE46,X46,IF(DG46=DF46,Y46,"")))</f>
+        <v/>
+      </c>
+      <c r="DI46" s="62">
+        <f>VLOOKUP(G46,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ46" s="4">
+        <f>IF(DC46&gt;-10,"",IF(ISERROR(DC46),"",CONCATENATE(INT(DC46/5)*5+5,"~",INT(DC46/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK46" s="4" t="n"/>
+      <c r="DL46" s="5">
+        <f>IF(AND(OR(N46="5G",N46="I5G"),O46="5GNSA"),"5G True User",IF(OR(N46="2G",N46="3G",N46="4G",N46="I4G"),"4G",IF(AND(OR(N46="5G",N46="I5G"),O46&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM46" s="63">
+        <f>COUNTIFS(AD46:AF46,"&gt;-105",AD46:AF46,"&lt;0")+COUNTIFS(AX46:AZ46,"&gt;-105",AX46:AZ46,"&lt;0")+COUNTIFS(BR46:BT46,"&gt;-105",BR46:BT46,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN46" s="11">
+        <f>ROUND(MAX(DD46,DE46,DF46)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO46" s="64">
+        <f>IF(DC46&gt;-10,"",ROUND(DC46/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP46" s="65">
+        <f>IF(R2="作業","障礙",IF(R46="障礙","障礙",IF(R46="抗爭","抗爭",IF(R46="40055重大障礙","40055重大障礙",IF(R46="非TWM問題的障礙","非TWM問題的障礙",IF(U46=35806,"非TWM問題的障礙",IF( OR(AND(AJ46&lt;&gt;"",AJ46&gt;0,AJ46&lt;0.7),       AND(AK46&lt;&gt;"",AK46&gt;0,AK46&lt;0.7),       AND(AL46&lt;&gt;"",AL46&gt;0,AL46&lt;0.7),       AND(AP46&lt;&gt;"",AP46&gt;0,AP46&lt;0.7),       AND(AQ46&lt;&gt;"",AQ46&gt;0,AQ46&lt;0.7),       AND(AR46&lt;&gt;"",AR46&gt;0,AR46&lt;0.7),       AND(AS46&lt;&gt;"",AS46&gt;0,AS46&lt;0.7),       AND(AT46&lt;&gt;"",AT46&gt;0,AT46&lt;0.7),       AND(AU46&lt;&gt;"",AU46&gt;0,AU46&lt;0.7)),"障礙",IF( OR(AND(BD46&lt;&gt;"",BD46&gt;0,BD46&lt;0.7),       AND(BE46&lt;&gt;"",BE46&gt;0,BE46&lt;0.7),       AND(BF46&lt;&gt;"",BF46&gt;0,BF46&lt;0.7),       AND(BJ46&lt;&gt;"",BJ46&gt;0,BJ46&lt;0.7),       AND(BK46&lt;&gt;"",BK46&gt;0,BK46&lt;0.7),       AND(BL46&lt;&gt;"",BL46&gt;0,BL46&lt;0.7),       AND(BM46&lt;&gt;"",BM46&gt;0,BM46&lt;0.7),       AND(BN46&lt;&gt;"",BN46&gt;0,BN46&lt;0.7),       AND(BO46&lt;&gt;"",BO46&gt;0,BO46&lt;0.7)),"障礙",IF( OR(AND(BX46&lt;&gt;"",BX46&gt;0,BX46&lt;0.7),       AND(BY46&lt;&gt;"",BY46&gt;0,BY46&lt;0.7),       AND(BZ46&lt;&gt;"",BZ46&gt;0,BZ46&lt;0.7),       AND(CD46&lt;&gt;"",CD46&gt;0,CD46&lt;0.7),       AND(CE46&lt;&gt;"",CE46&gt;0,CE46&lt;0.7),       AND(CF46&lt;&gt;"",CF46&gt;0,CF46&lt;0.7),       AND(CG46&lt;&gt;"",CG46&gt;0,CG46&lt;0.7),       AND(CH46&lt;&gt;"",CH46&gt;0,CH46&lt;0.7),       AND(CI46&lt;&gt;"",CI46&gt;0,CI46&lt;0.7)),"障礙",IF(OR(CJ46="住抗",CJ46="暫時移除設備"),"抗爭",IF(CJ46&lt;&gt;"","障礙",IF(DM46&gt;2,"干擾",IF(Q46=6,"CC6",IF( OR(AND(DD46&lt;&gt;"",DD46&gt;0.8),AND(DE46&lt;&gt;"",DE46&gt;0.8),AND(DF46&lt;&gt;"",DF46&gt;0.8)),"PRB&gt;80",IF(AND(DC46&gt;-106,DC46&lt;-30),"RSRP優於-106",IF(DC46&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ46" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA46)),"",MID(AA46,SEARCH("PM分析:",AA46)+5,SEARCH("&gt;&gt;檢查",AA46)-SEARCH("PM分析:",AA46)-5))</f>
+        <v/>
+      </c>
+      <c r="DR46" s="28">
+        <f>IF(T46="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T46="因應特別活動調整相關參數導致","TTC",IF(OR(T46="基站障礙問題查測中",T46="基站問題待料中",T46="基站障礙問題已修復",T46="施工作業已恢復",T46="基站抗爭暫時關閉",T46="基站抗爭持續關閉中",T46="基站抗爭已復站",T46="基地台抗爭拆站",T46="基地台群體抗爭",T46="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R46="作業",R46="障礙",R46="抗爭"),"基站障礙",IF(OR(T46="外在不明干擾影響，查測中",T46="干擾問題已排除",T46="外在不明干擾(大規模)影響",T46="干擾(大規模)問題已排除"),"干擾",IF(R46="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="38" t="inlineStr">
+        <is>
+          <t>2022-12-01-0027</t>
+        </is>
+      </c>
+      <c r="B47" s="66" t="n">
+        <v>4376265</v>
+      </c>
+      <c r="C47" s="67" t="n">
+        <v>44896.37716435185</v>
+      </c>
+      <c r="D47" s="38" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="E47" s="38" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="F47" s="38" t="inlineStr">
+        <is>
+          <t>2022/12/01~2022/12/07</t>
+        </is>
+      </c>
+      <c r="G47" s="41" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H47" s="38" t="inlineStr">
+        <is>
+          <t>南區</t>
+        </is>
+      </c>
+      <c r="I47" s="38" t="inlineStr">
+        <is>
+          <t>台南市</t>
+        </is>
+      </c>
+      <c r="J47" s="38" t="inlineStr">
+        <is>
+          <t>台南市歸仁區</t>
+        </is>
+      </c>
+      <c r="K47" s="38" t="inlineStr">
+        <is>
+          <t>OM/TAC</t>
+        </is>
+      </c>
+      <c r="L47" s="38" t="inlineStr">
+        <is>
+          <t>上網相關問題</t>
+        </is>
+      </c>
+      <c r="M47" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="N47" s="38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="O47" s="38" t="inlineStr">
+        <is>
+          <t>5GNSA</t>
+        </is>
+      </c>
+      <c r="P47" s="38" t="inlineStr">
+        <is>
+          <t>4G上網收訊客訴</t>
+        </is>
+      </c>
+      <c r="Q47" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="R47" s="38" t="n"/>
+      <c r="S47" s="38" t="inlineStr">
+        <is>
+          <t>(U)環境因素</t>
+        </is>
+      </c>
+      <c r="T47" s="38" t="inlineStr">
+        <is>
+          <t>戶外收訊正常，因週遭環境或建物影響，形成室內deepindoor收訊死角</t>
+        </is>
+      </c>
+      <c r="U47" s="43" t="n"/>
+      <c r="V47" s="38" t="n"/>
+      <c r="W47" s="38" t="inlineStr">
+        <is>
+          <t>71179000</t>
+        </is>
+      </c>
+      <c r="X47" s="38" t="inlineStr">
+        <is>
+          <t>71124000</t>
+        </is>
+      </c>
+      <c r="Y47" s="38" t="inlineStr">
+        <is>
+          <t>71142000</t>
+        </is>
+      </c>
+      <c r="Z47" s="38" t="inlineStr">
+        <is>
+          <t>暫無改善</t>
+        </is>
+      </c>
+      <c r="AA47" s="38" t="inlineStr">
+        <is>
+          <t>sTIP預判處理:門號狀態:,客戶類別:一般用戶,降速:有,干擾值大於-110dbm:,前一小時UE數: 71179000(),71124000(10.79),71142000(12.75),前一天最差PRB%:71179000(%),71124000(16.39%),71142000(60.60%),前一小時100M內CA小於90%:,前一小時100M內RRC SSR小於90%:,PM分析:答案41&gt;&gt;檢查前3小時基站L700 EIP值是否有3個≧-105 dBm：否，0個符合&gt;&gt;檢查基站前3小時內是否有RRC Setup Attempts數量是否L700少3%且L1800多10%情況：否&gt;&gt;檢查基站前1天內是否有Average PRB Usage per TTI DL%&gt;80情況：否&gt;&gt;檢查基站前3小時內是否有Cell Availability Ratio(%)&lt;90%情況：是(2022/12/1 上午 07:00:00 71142000(75%))</t>
+        </is>
+      </c>
+      <c r="AB47" s="44" t="inlineStr">
+        <is>
+          <t>71179000</t>
+        </is>
+      </c>
+      <c r="AC47" s="42" t="n"/>
+      <c r="AD47" s="42" t="n"/>
+      <c r="AE47" s="42" t="n"/>
+      <c r="AF47" s="42" t="n"/>
+      <c r="AG47" s="42" t="n"/>
+      <c r="AH47" s="42" t="n"/>
+      <c r="AI47" s="42" t="n"/>
+      <c r="AJ47" s="42" t="n"/>
+      <c r="AK47" s="42" t="n"/>
+      <c r="AL47" s="42" t="n"/>
+      <c r="AM47" s="42" t="n"/>
+      <c r="AN47" s="42" t="n"/>
+      <c r="AO47" s="42" t="n"/>
+      <c r="AP47" s="42" t="n"/>
+      <c r="AQ47" s="42" t="n"/>
+      <c r="AR47" s="42" t="n"/>
+      <c r="AS47" s="42" t="n"/>
+      <c r="AT47" s="42" t="n"/>
+      <c r="AU47" s="42" t="n"/>
+      <c r="AV47" s="44" t="inlineStr">
+        <is>
+          <t>71124000</t>
+        </is>
+      </c>
+      <c r="AW47" s="42" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="AX47" s="42" t="n">
+        <v>-111.72</v>
+      </c>
+      <c r="AY47" s="42" t="n">
+        <v>-111.93</v>
+      </c>
+      <c r="AZ47" s="42" t="n">
+        <v>-111.41</v>
+      </c>
+      <c r="BA47" s="42" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="BB47" s="42" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="BC47" s="42" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="BD47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF47" s="42" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="BG47" s="42" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="BH47" s="42" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="BI47" s="42" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="BJ47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM47" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BN47" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BO47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP47" s="44" t="inlineStr">
+        <is>
+          <t>71142000</t>
+        </is>
+      </c>
+      <c r="BQ47" s="42" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="BR47" s="42" t="n">
+        <v>-114.13</v>
+      </c>
+      <c r="BS47" s="42" t="n">
+        <v>-114.91</v>
+      </c>
+      <c r="BT47" s="42" t="n">
+        <v>-114.14</v>
+      </c>
+      <c r="BU47" s="42" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="BV47" s="42" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="BW47" s="42" t="n">
+        <v>23.43</v>
+      </c>
+      <c r="BX47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ47" s="42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CA47" s="42" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="CB47" s="42" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="CC47" s="42" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="CD47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF47" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG47" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CH47" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CI47" s="42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="CJ47" s="38" t="n"/>
+      <c r="CK47" s="38" t="inlineStr">
+        <is>
+          <t>Apple OS</t>
+        </is>
+      </c>
+      <c r="CL47" s="38" t="n"/>
+      <c r="CM47" s="45" t="inlineStr">
+        <is>
+          <t>188客戶來電</t>
+        </is>
+      </c>
+      <c r="CN47" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CO47" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CP47" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CQ47" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CR47" s="46" t="n">
+        <v>-102</v>
+      </c>
+      <c r="CS47" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CT47" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CU47" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CV47" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CW47" s="46" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="CX47" s="42" t="n">
+        <v>120.2788194</v>
+      </c>
+      <c r="CY47" s="42" t="n">
+        <v>22.9210768</v>
+      </c>
+      <c r="CZ47" s="45" t="inlineStr">
+        <is>
+          <t>其他答案</t>
+        </is>
+      </c>
+      <c r="DA47" s="45" t="inlineStr">
+        <is>
+          <t>室內訊號不好</t>
+        </is>
+      </c>
+      <c r="DC47" s="31">
+        <f>IF(CP47&lt;-10,CP47,IF(ISERROR(AVERAGE(CN47:CR47)),"",AVERAGE(CN47:CR47)))</f>
+        <v/>
+      </c>
+      <c r="DD47" s="25">
+        <f>IF(AC47&lt;&gt;"",AC47/100,"")</f>
+        <v/>
+      </c>
+      <c r="DE47" s="25">
+        <f>IF(AW47&lt;&gt;"",AW47/100,"")</f>
+        <v/>
+      </c>
+      <c r="DF47" s="25">
+        <f>IF(BQ47&lt;&gt;"",BQ47/100,"")</f>
+        <v/>
+      </c>
+      <c r="DG47" s="13">
+        <f>MAX(DD47,DE47,DF47)</f>
+        <v/>
+      </c>
+      <c r="DH47" s="14">
+        <f>IF(DG47=DD47,W47,IF(DG47=DE47,X47,IF(DG47=DF47,Y47,"")))</f>
+        <v/>
+      </c>
+      <c r="DI47" s="62">
+        <f>VLOOKUP(G47,#REF!,2,0)</f>
+        <v/>
+      </c>
+      <c r="DJ47" s="4">
+        <f>IF(DC47&gt;-10,"",IF(ISERROR(DC47),"",CONCATENATE(INT(DC47/5)*5+5,"~",INT(DC47/5)*5)))</f>
+        <v/>
+      </c>
+      <c r="DK47" s="4" t="n"/>
+      <c r="DL47" s="5">
+        <f>IF(AND(OR(N47="5G",N47="I5G"),O47="5GNSA"),"5G True User",IF(OR(N47="2G",N47="3G",N47="4G",N47="I4G"),"4G",IF(AND(OR(N47="5G",N47="I5G"),O47&lt;&gt;"5GNSA"),"5G非TU","")))</f>
+        <v/>
+      </c>
+      <c r="DM47" s="63">
+        <f>COUNTIFS(AD47:AF47,"&gt;-105",AD47:AF47,"&lt;0")+COUNTIFS(AX47:AZ47,"&gt;-105",AX47:AZ47,"&lt;0")+COUNTIFS(BR47:BT47,"&gt;-105",BR47:BT47,"&lt;0")</f>
+        <v/>
+      </c>
+      <c r="DN47" s="11">
+        <f>ROUND(MAX(DD47,DE47,DF47)*100/5,0)*0.05</f>
+        <v/>
+      </c>
+      <c r="DO47" s="64">
+        <f>IF(DC47&gt;-10,"",ROUND(DC47/5,0)*5)</f>
+        <v/>
+      </c>
+      <c r="DP47" s="65">
+        <f>IF(R2="作業","障礙",IF(R47="障礙","障礙",IF(R47="抗爭","抗爭",IF(R47="40055重大障礙","40055重大障礙",IF(R47="非TWM問題的障礙","非TWM問題的障礙",IF(U47=35806,"非TWM問題的障礙",IF( OR(AND(AJ47&lt;&gt;"",AJ47&gt;0,AJ47&lt;0.7),       AND(AK47&lt;&gt;"",AK47&gt;0,AK47&lt;0.7),       AND(AL47&lt;&gt;"",AL47&gt;0,AL47&lt;0.7),       AND(AP47&lt;&gt;"",AP47&gt;0,AP47&lt;0.7),       AND(AQ47&lt;&gt;"",AQ47&gt;0,AQ47&lt;0.7),       AND(AR47&lt;&gt;"",AR47&gt;0,AR47&lt;0.7),       AND(AS47&lt;&gt;"",AS47&gt;0,AS47&lt;0.7),       AND(AT47&lt;&gt;"",AT47&gt;0,AT47&lt;0.7),       AND(AU47&lt;&gt;"",AU47&gt;0,AU47&lt;0.7)),"障礙",IF( OR(AND(BD47&lt;&gt;"",BD47&gt;0,BD47&lt;0.7),       AND(BE47&lt;&gt;"",BE47&gt;0,BE47&lt;0.7),       AND(BF47&lt;&gt;"",BF47&gt;0,BF47&lt;0.7),       AND(BJ47&lt;&gt;"",BJ47&gt;0,BJ47&lt;0.7),       AND(BK47&lt;&gt;"",BK47&gt;0,BK47&lt;0.7),       AND(BL47&lt;&gt;"",BL47&gt;0,BL47&lt;0.7),       AND(BM47&lt;&gt;"",BM47&gt;0,BM47&lt;0.7),       AND(BN47&lt;&gt;"",BN47&gt;0,BN47&lt;0.7),       AND(BO47&lt;&gt;"",BO47&gt;0,BO47&lt;0.7)),"障礙",IF( OR(AND(BX47&lt;&gt;"",BX47&gt;0,BX47&lt;0.7),       AND(BY47&lt;&gt;"",BY47&gt;0,BY47&lt;0.7),       AND(BZ47&lt;&gt;"",BZ47&gt;0,BZ47&lt;0.7),       AND(CD47&lt;&gt;"",CD47&gt;0,CD47&lt;0.7),       AND(CE47&lt;&gt;"",CE47&gt;0,CE47&lt;0.7),       AND(CF47&lt;&gt;"",CF47&gt;0,CF47&lt;0.7),       AND(CG47&lt;&gt;"",CG47&gt;0,CG47&lt;0.7),       AND(CH47&lt;&gt;"",CH47&gt;0,CH47&lt;0.7),       AND(CI47&lt;&gt;"",CI47&gt;0,CI47&lt;0.7)),"障礙",IF(OR(CJ47="住抗",CJ47="暫時移除設備"),"抗爭",IF(CJ47&lt;&gt;"","障礙",IF(DM47&gt;2,"干擾",IF(Q47=6,"CC6",IF( OR(AND(DD47&lt;&gt;"",DD47&gt;0.8),AND(DE47&lt;&gt;"",DE47&gt;0.8),AND(DF47&lt;&gt;"",DF47&gt;0.8)),"PRB&gt;80",IF(AND(DC47&gt;-106,DC47&lt;-30),"RSRP優於-106",IF(DC47&lt;=-106,"RSRP劣於-106",""))))))))))))))))</f>
+        <v/>
+      </c>
+      <c r="DQ47" s="37">
+        <f>IF(ISERROR(SEARCH("&gt;&gt;檢查",AA47)),"",MID(AA47,SEARCH("PM分析:",AA47)+5,SEARCH("&gt;&gt;檢查",AA47)-SEARCH("PM分析:",AA47)-5))</f>
+        <v/>
+      </c>
+      <c r="DR47" s="28">
+        <f>IF(T47="因客訴地點人多，導致收訊擁擠","基站擁擠",IF(T47="因應特別活動調整相關參數導致","TTC",IF(OR(T47="基站障礙問題查測中",T47="基站問題待料中",T47="基站障礙問題已修復",T47="施工作業已恢復",T47="基站抗爭暫時關閉",T47="基站抗爭持續關閉中",T47="基站抗爭已復站",T47="基地台抗爭拆站",T47="基地台群體抗爭",T47="基站隱藏性障礙問題已修復"),"基站障礙",IF(OR(R47="作業",R47="障礙",R47="抗爭"),"基站障礙",IF(OR(T47="外在不明干擾影響，查測中",T47="干擾問題已排除",T47="外在不明干擾(大規模)影響",T47="干擾(大規模)問題已排除"),"干擾",IF(R47="干擾","干擾",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:DR1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
